--- a/data/Indirect_Costs.xlsx
+++ b/data/Indirect_Costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jan-19</t>
+          <t>Feb-15</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -482,11 +482,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jan-19</t>
+          <t>Feb-15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>257761.74</v>
@@ -501,5815 +501,5682 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jan-19</t>
+          <t>Mar-15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>248943.32</v>
+        <v>254173.4</v>
       </c>
       <c r="D4" t="n">
-        <v>58903.54</v>
+        <v>59563.88</v>
       </c>
       <c r="E4" t="n">
-        <v>307846.86</v>
+        <v>313737.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jan-19</t>
+          <t>Mar-15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>267076.98</v>
+        <v>264112.43</v>
       </c>
       <c r="D5" t="n">
-        <v>64912.97</v>
+        <v>67591.36</v>
       </c>
       <c r="E5" t="n">
-        <v>331989.95</v>
+        <v>331703.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Feb-19</t>
+          <t>Apr-15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>253038.99</v>
+        <v>188892.22</v>
       </c>
       <c r="D6" t="n">
-        <v>61937.91</v>
+        <v>47579.96</v>
       </c>
       <c r="E6" t="n">
-        <v>314976.9</v>
+        <v>236472.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Feb-19</t>
+          <t>Apr-15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>253824.53</v>
+        <v>253509.96</v>
       </c>
       <c r="D7" t="n">
-        <v>63857.78</v>
+        <v>59261.41</v>
       </c>
       <c r="E7" t="n">
-        <v>317682.31</v>
+        <v>312771.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Feb-19</t>
+          <t>Apr-15</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>252987.86</v>
+        <v>262094.55</v>
       </c>
       <c r="D8" t="n">
-        <v>54187.43</v>
+        <v>58823.93</v>
       </c>
       <c r="E8" t="n">
-        <v>307175.29</v>
+        <v>320918.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Feb-19</t>
+          <t>May-15</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>252093.02</v>
+        <v>215579.67</v>
       </c>
       <c r="D9" t="n">
-        <v>61297.57</v>
+        <v>53258.62</v>
       </c>
       <c r="E9" t="n">
-        <v>313390.59</v>
+        <v>268838.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mar-19</t>
+          <t>May-15</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>250098.81</v>
+        <v>251574.86</v>
       </c>
       <c r="D10" t="n">
-        <v>62840.08</v>
+        <v>61821.92</v>
       </c>
       <c r="E10" t="n">
-        <v>312938.89</v>
+        <v>313396.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mar-19</t>
+          <t>May-15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>251028.72</v>
+        <v>256409.72</v>
       </c>
       <c r="D11" t="n">
-        <v>58490.88</v>
+        <v>56240.4</v>
       </c>
       <c r="E11" t="n">
-        <v>309519.6</v>
+        <v>312650.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mar-19</t>
+          <t>Jun-15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>262775.46</v>
+        <v>246516.21</v>
       </c>
       <c r="D12" t="n">
-        <v>57304.27</v>
+        <v>57382.05</v>
       </c>
       <c r="E12" t="n">
-        <v>320079.73</v>
+        <v>303898.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mar-19</t>
+          <t>Jun-15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>255162.67</v>
+        <v>257220.5</v>
       </c>
       <c r="D13" t="n">
-        <v>57172.5</v>
+        <v>57911.03</v>
       </c>
       <c r="E13" t="n">
-        <v>312335.17</v>
+        <v>315131.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apr-19</t>
+          <t>Jun-15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>252308.09</v>
+        <v>256445.89</v>
       </c>
       <c r="D14" t="n">
-        <v>62983.01</v>
+        <v>59926.77</v>
       </c>
       <c r="E14" t="n">
-        <v>315291.1</v>
+        <v>316372.66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Apr-19</t>
+          <t>Jul-15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>249632.75</v>
+        <v>313997.16</v>
       </c>
       <c r="D15" t="n">
-        <v>61630.82</v>
+        <v>77551.86</v>
       </c>
       <c r="E15" t="n">
-        <v>311263.57</v>
+        <v>391549.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apr-19</t>
+          <t>Jul-15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>258355.19</v>
+        <v>257210.94</v>
       </c>
       <c r="D16" t="n">
-        <v>58964.55</v>
+        <v>59657.91</v>
       </c>
       <c r="E16" t="n">
-        <v>317319.74</v>
+        <v>316868.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apr-19</t>
+          <t>Jul-15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>321020.76</v>
+        <v>256818.04</v>
       </c>
       <c r="D17" t="n">
-        <v>82679.36</v>
+        <v>67408.34</v>
       </c>
       <c r="E17" t="n">
-        <v>403700.12</v>
+        <v>324226.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>May-19</t>
+          <t>Jul-15</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>257184.59</v>
+        <v>194178.19</v>
       </c>
       <c r="D18" t="n">
-        <v>59645.2</v>
+        <v>43293.36</v>
       </c>
       <c r="E18" t="n">
-        <v>316829.79</v>
+        <v>237471.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>May-19</t>
+          <t>Aug-15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>260208.14</v>
+        <v>293340</v>
       </c>
       <c r="D19" t="n">
-        <v>58458.52</v>
+        <v>66615.81</v>
       </c>
       <c r="E19" t="n">
-        <v>318666.66</v>
+        <v>359955.81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>May-19</t>
+          <t>Aug-15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>261368.09</v>
+        <v>261725.06</v>
       </c>
       <c r="D20" t="n">
-        <v>54812.93</v>
+        <v>55341.53</v>
       </c>
       <c r="E20" t="n">
-        <v>316181.02</v>
+        <v>317066.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>May-19</t>
+          <t>Aug-15</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>284682.85</v>
+        <v>253459.1</v>
       </c>
       <c r="D21" t="n">
-        <v>73420.07000000001</v>
+        <v>66009.82000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>358102.92</v>
+        <v>319468.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jun-19</t>
+          <t>Aug-15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>264138.22</v>
+        <v>232989.1</v>
       </c>
       <c r="D22" t="n">
-        <v>61963.6</v>
+        <v>53872.02</v>
       </c>
       <c r="E22" t="n">
-        <v>326101.8199999999</v>
+        <v>286861.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jun-19</t>
+          <t>Sep-15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>261173.17</v>
+        <v>277886.27</v>
       </c>
       <c r="D23" t="n">
-        <v>59884.39</v>
+        <v>63998.35</v>
       </c>
       <c r="E23" t="n">
-        <v>321057.56</v>
+        <v>341884.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jun-19</t>
+          <t>Sep-15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>254609.66</v>
+        <v>254935.32</v>
       </c>
       <c r="D24" t="n">
-        <v>56744.7</v>
+        <v>57044.32</v>
       </c>
       <c r="E24" t="n">
-        <v>311354.36</v>
+        <v>311979.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jun-19</t>
+          <t>Sep-15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>271602.26</v>
+        <v>256137.55</v>
       </c>
       <c r="D25" t="n">
-        <v>71636.63</v>
+        <v>67966.83</v>
       </c>
       <c r="E25" t="n">
-        <v>343238.89</v>
+        <v>324104.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jul-19</t>
+          <t>Sep-15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>265792.52</v>
+        <v>250118.05</v>
       </c>
       <c r="D26" t="n">
-        <v>57088.88</v>
+        <v>53028.83</v>
       </c>
       <c r="E26" t="n">
-        <v>322881.4</v>
+        <v>303146.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jul-19</t>
+          <t>Oct-15</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>264207.44</v>
+        <v>271812.19</v>
       </c>
       <c r="D27" t="n">
-        <v>60389.85</v>
+        <v>62276.74</v>
       </c>
       <c r="E27" t="n">
-        <v>324597.29</v>
+        <v>334088.93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jul-19</t>
+          <t>Oct-15</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>255670.41</v>
+        <v>255114.97</v>
       </c>
       <c r="D28" t="n">
-        <v>61959.79</v>
+        <v>61919.48</v>
       </c>
       <c r="E28" t="n">
-        <v>317630.2</v>
+        <v>317034.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jul-19</t>
+          <t>Oct-15</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>273133.29</v>
+        <v>264625.46</v>
       </c>
       <c r="D29" t="n">
-        <v>70412.50999999999</v>
+        <v>68381.07000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>343545.8</v>
+        <v>333006.53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aug-19</t>
+          <t>Oct-15</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>260246.05</v>
+        <v>251859.72</v>
       </c>
       <c r="D30" t="n">
-        <v>59191.65</v>
+        <v>57029.44</v>
       </c>
       <c r="E30" t="n">
-        <v>319437.7</v>
+        <v>308889.16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aug-19</t>
+          <t>Nov-15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>265588.56</v>
+        <v>267810.38</v>
       </c>
       <c r="D31" t="n">
-        <v>64882.55</v>
+        <v>65413.94</v>
       </c>
       <c r="E31" t="n">
-        <v>330471.11</v>
+        <v>333224.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aug-19</t>
+          <t>Nov-15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>257072.15</v>
+        <v>255266.32</v>
       </c>
       <c r="D32" t="n">
-        <v>62015.67</v>
+        <v>61628.53</v>
       </c>
       <c r="E32" t="n">
-        <v>319087.82</v>
+        <v>316894.85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aug-19</t>
+          <t>Nov-15</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>262516.34</v>
+        <v>256774.89</v>
       </c>
       <c r="D33" t="n">
-        <v>63063.97</v>
+        <v>61720.5</v>
       </c>
       <c r="E33" t="n">
-        <v>325580.3100000001</v>
+        <v>318495.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sep-19</t>
+          <t>Nov-15</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>265423.1</v>
+        <v>260325.54</v>
       </c>
       <c r="D34" t="n">
-        <v>65295.49</v>
+        <v>63972.75</v>
       </c>
       <c r="E34" t="n">
-        <v>330718.59</v>
+        <v>324298.29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sep-19</t>
+          <t>Dec-15</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>263480.17</v>
+        <v>262369.59</v>
       </c>
       <c r="D35" t="n">
-        <v>67037</v>
+        <v>66712.86</v>
       </c>
       <c r="E35" t="n">
-        <v>330517.17</v>
+        <v>329082.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sep-19</t>
+          <t>Dec-15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>261484.09</v>
+        <v>258320</v>
       </c>
       <c r="D36" t="n">
-        <v>60443.44</v>
+        <v>59750.55</v>
       </c>
       <c r="E36" t="n">
-        <v>321927.53</v>
+        <v>318070.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sep-19</t>
+          <t>Dec-15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>264204.93</v>
+        <v>259073.05</v>
       </c>
       <c r="D37" t="n">
-        <v>67800.66</v>
+        <v>66509.74000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>332005.59</v>
+        <v>325582.79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Oct-19</t>
+          <t>Dec-15</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>262537.8</v>
+        <v>258812.61</v>
       </c>
       <c r="D38" t="n">
-        <v>68710.44</v>
+        <v>67717.67999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>331248.24</v>
+        <v>326530.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Oct-19</t>
+          <t>Jan-16</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>248189.96</v>
+        <v>245217.18</v>
       </c>
       <c r="D39" t="n">
-        <v>67274.19</v>
+        <v>66406.2</v>
       </c>
       <c r="E39" t="n">
-        <v>315464.15</v>
+        <v>311623.38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Oct-19</t>
+          <t>Jan-16</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>261204.38</v>
+        <v>256901.49</v>
       </c>
       <c r="D40" t="n">
-        <v>60495.79</v>
+        <v>59518.79</v>
       </c>
       <c r="E40" t="n">
-        <v>321700.17</v>
+        <v>316420.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Oct-19</t>
+          <t>Jan-16</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>262589.2</v>
+        <v>257301.89</v>
       </c>
       <c r="D41" t="n">
-        <v>58929.62</v>
+        <v>57767.15</v>
       </c>
       <c r="E41" t="n">
-        <v>321518.82</v>
+        <v>315069.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nov-19</t>
+          <t>Jan-16</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>258817.23</v>
+        <v>255594.35</v>
       </c>
       <c r="D42" t="n">
-        <v>66335.14</v>
+        <v>65496.19</v>
       </c>
       <c r="E42" t="n">
-        <v>325152.37</v>
+        <v>321090.54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nov-19</t>
+          <t>Feb-16</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>260343.34</v>
+        <v>255690.84</v>
       </c>
       <c r="D43" t="n">
-        <v>62925.21</v>
+        <v>61814.56</v>
       </c>
       <c r="E43" t="n">
-        <v>323268.55</v>
+        <v>317505.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nov-19</t>
+          <t>Feb-16</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>255132.81</v>
+        <v>250101.06</v>
       </c>
       <c r="D44" t="n">
-        <v>59586.79</v>
+        <v>58420.39</v>
       </c>
       <c r="E44" t="n">
-        <v>314719.6</v>
+        <v>308521.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nov-19</t>
+          <t>Feb-16</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>264660.19</v>
+        <v>258920.74</v>
       </c>
       <c r="D45" t="n">
-        <v>61357.52</v>
+        <v>60036.1</v>
       </c>
       <c r="E45" t="n">
-        <v>326017.71</v>
+        <v>318956.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dec-19</t>
+          <t>Feb-16</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>253844.21</v>
+        <v>250841.16</v>
       </c>
       <c r="D46" t="n">
-        <v>65235.78</v>
+        <v>64454.16</v>
       </c>
       <c r="E46" t="n">
-        <v>319079.99</v>
+        <v>315295.32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dec-19</t>
+          <t>Mar-16</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>257782.01</v>
+        <v>252375.85</v>
       </c>
       <c r="D47" t="n">
-        <v>64914.63</v>
+        <v>63547.93</v>
       </c>
       <c r="E47" t="n">
-        <v>322696.64</v>
+        <v>315923.78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dec-19</t>
+          <t>Mar-16</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>251129.38</v>
+        <v>245637.02</v>
       </c>
       <c r="D48" t="n">
-        <v>59306.17</v>
+        <v>58012.25</v>
       </c>
       <c r="E48" t="n">
-        <v>310435.55</v>
+        <v>303649.27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dec-19</t>
+          <t>Mar-16</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>257462.85</v>
+        <v>251576.53</v>
       </c>
       <c r="D49" t="n">
-        <v>56739.88</v>
+        <v>55456.64</v>
       </c>
       <c r="E49" t="n">
-        <v>314202.73</v>
+        <v>307033.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jan-20</t>
+          <t>Mar-16</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>253914.86</v>
+        <v>250933.35</v>
       </c>
       <c r="D50" t="n">
-        <v>63523.97</v>
+        <v>62772.43</v>
       </c>
       <c r="E50" t="n">
-        <v>317438.83</v>
+        <v>313705.78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jan-20</t>
+          <t>Apr-16</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>254428.72</v>
+        <v>248790.41</v>
       </c>
       <c r="D51" t="n">
-        <v>61876.47</v>
+        <v>60506.41</v>
       </c>
       <c r="E51" t="n">
-        <v>316305.19</v>
+        <v>309296.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Jan-20</t>
+          <t>Apr-16</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>243999.99</v>
+        <v>238496.13</v>
       </c>
       <c r="D52" t="n">
-        <v>58514.06</v>
+        <v>57194.35</v>
       </c>
       <c r="E52" t="n">
-        <v>302514.05</v>
+        <v>295690.48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Jan-20</t>
+          <t>Apr-16</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>252530</v>
+        <v>246695.09</v>
       </c>
       <c r="D53" t="n">
-        <v>56086.02</v>
+        <v>54800.27</v>
       </c>
       <c r="E53" t="n">
-        <v>308616.02</v>
+        <v>301495.36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Feb-20</t>
+          <t>Apr-16</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>250015.91</v>
+        <v>247257.96</v>
       </c>
       <c r="D54" t="n">
-        <v>62683.52</v>
+        <v>61986.68</v>
       </c>
       <c r="E54" t="n">
-        <v>312699.43</v>
+        <v>309244.64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Feb-20</t>
+          <t>May-16</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>260377.72</v>
+        <v>254740.37</v>
       </c>
       <c r="D55" t="n">
-        <v>61180.26</v>
+        <v>59857.86</v>
       </c>
       <c r="E55" t="n">
-        <v>321557.98</v>
+        <v>314598.23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Feb-20</t>
+          <t>May-16</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>247125.55</v>
+        <v>241737.96</v>
       </c>
       <c r="D56" t="n">
-        <v>58761.66</v>
+        <v>57481.17</v>
       </c>
       <c r="E56" t="n">
-        <v>305887.21</v>
+        <v>299219.13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Feb-20</t>
+          <t>May-16</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>240649.77</v>
+        <v>235340.55</v>
       </c>
       <c r="D57" t="n">
-        <v>57689.57</v>
+        <v>56422.85</v>
       </c>
       <c r="E57" t="n">
-        <v>298339.34</v>
+        <v>291763.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mar-20</t>
+          <t>May-16</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>247696.88</v>
+        <v>245167.15</v>
       </c>
       <c r="D58" t="n">
-        <v>67921.62</v>
+        <v>67221.24000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>315618.5</v>
+        <v>312388.39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mar-20</t>
+          <t>Jun-16</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>251646.4</v>
+        <v>246717.55</v>
       </c>
       <c r="D59" t="n">
-        <v>60847.03</v>
+        <v>59658.61</v>
       </c>
       <c r="E59" t="n">
-        <v>312493.43</v>
+        <v>306376.16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mar-20</t>
+          <t>Jun-16</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>245788.86</v>
+        <v>240970.46</v>
       </c>
       <c r="D60" t="n">
-        <v>55337.32</v>
+        <v>54250.57</v>
       </c>
       <c r="E60" t="n">
-        <v>301126.18</v>
+        <v>295221.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mar-20</t>
+          <t>Jun-16</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>248291.45</v>
+        <v>243404.48</v>
       </c>
       <c r="D61" t="n">
-        <v>60419.06</v>
+        <v>59233.75</v>
       </c>
       <c r="E61" t="n">
-        <v>308710.51</v>
+        <v>302638.23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Apr-20</t>
+          <t>Jun-16</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>248809.11</v>
+        <v>246634.99</v>
       </c>
       <c r="D62" t="n">
-        <v>60403.99</v>
+        <v>59864.8</v>
       </c>
       <c r="E62" t="n">
-        <v>309213.1</v>
+        <v>306499.79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Apr-20</t>
+          <t>Jul-16</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
-        <v>253734.54</v>
+        <v>249643.45</v>
       </c>
       <c r="D63" t="n">
-        <v>55441.53</v>
+        <v>54533.13</v>
       </c>
       <c r="E63" t="n">
-        <v>309176.07</v>
+        <v>304176.58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Apr-20</t>
+          <t>Jul-16</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>246870.32</v>
+        <v>242887.25</v>
       </c>
       <c r="D64" t="n">
-        <v>63082.58</v>
+        <v>62085.55</v>
       </c>
       <c r="E64" t="n">
-        <v>309952.9</v>
+        <v>304972.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Apr-20</t>
+          <t>Jul-16</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>240513.49</v>
+        <v>236598.21</v>
       </c>
       <c r="D65" t="n">
-        <v>57645.58</v>
+        <v>56706.3</v>
       </c>
       <c r="E65" t="n">
-        <v>298159.07</v>
+        <v>293304.51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>May-20</t>
+          <t>Jul-16</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>245000.32</v>
+        <v>243401.14</v>
       </c>
       <c r="D66" t="n">
-        <v>57585.55</v>
+        <v>57201.19</v>
       </c>
       <c r="E66" t="n">
-        <v>302585.87</v>
+        <v>300602.33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>May-20</t>
+          <t>Aug-16</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>239568.76</v>
+        <v>236839.46</v>
       </c>
       <c r="D67" t="n">
-        <v>56746.13</v>
+        <v>56113.98</v>
       </c>
       <c r="E67" t="n">
-        <v>296314.89</v>
+        <v>292953.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>May-20</t>
+          <t>Aug-16</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>238472.72</v>
+        <v>235781.07</v>
       </c>
       <c r="D68" t="n">
-        <v>61729.12</v>
+        <v>61044.53</v>
       </c>
       <c r="E68" t="n">
-        <v>300201.84</v>
+        <v>296825.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>May-20</t>
+          <t>Aug-16</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>235977.76</v>
+        <v>233315.23</v>
       </c>
       <c r="D69" t="n">
-        <v>62099.83</v>
+        <v>61422.48</v>
       </c>
       <c r="E69" t="n">
-        <v>298077.59</v>
+        <v>294737.71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jun-20</t>
+          <t>Aug-16</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>238324.15</v>
+        <v>237363.5</v>
       </c>
       <c r="D70" t="n">
-        <v>56565.52</v>
+        <v>56334.73</v>
       </c>
       <c r="E70" t="n">
-        <v>294889.67</v>
+        <v>293698.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jun-20</t>
+          <t>Sep-16</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
-        <v>243206.63</v>
+        <v>241834.48</v>
       </c>
       <c r="D71" t="n">
-        <v>53551.08</v>
+        <v>53233.2</v>
       </c>
       <c r="E71" t="n">
-        <v>296757.71</v>
+        <v>295067.68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jun-20</t>
+          <t>Sep-16</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>239869.85</v>
+        <v>238516.52</v>
       </c>
       <c r="D72" t="n">
-        <v>63288.87</v>
+        <v>62944.77</v>
       </c>
       <c r="E72" t="n">
-        <v>303158.72</v>
+        <v>301461.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jun-20</t>
+          <t>Sep-16</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>229890.76</v>
+        <v>228551.98</v>
       </c>
       <c r="D73" t="n">
-        <v>60269.33</v>
+        <v>59928.86</v>
       </c>
       <c r="E73" t="n">
-        <v>290160.09</v>
+        <v>288480.84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jul-20</t>
+          <t>Sep-16</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>239748.75</v>
+        <v>239462.02</v>
       </c>
       <c r="D74" t="n">
-        <v>59155.49</v>
+        <v>59090.02</v>
       </c>
       <c r="E74" t="n">
-        <v>298904.24</v>
+        <v>298552.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jul-20</t>
+          <t>Oct-16</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>235080.03</v>
+        <v>235119.13</v>
       </c>
       <c r="D75" t="n">
-        <v>51656.77</v>
+        <v>51655.28</v>
       </c>
       <c r="E75" t="n">
-        <v>286736.8</v>
+        <v>286774.41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Jul-20</t>
+          <t>Oct-16</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>241766.38</v>
+        <v>241873.8</v>
       </c>
       <c r="D76" t="n">
-        <v>61135.38</v>
+        <v>61153.28</v>
       </c>
       <c r="E76" t="n">
-        <v>302901.76</v>
+        <v>303027.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Jul-20</t>
+          <t>Oct-16</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>235487.45</v>
+        <v>235593.06</v>
       </c>
       <c r="D77" t="n">
-        <v>59766.58</v>
+        <v>59787.29</v>
       </c>
       <c r="E77" t="n">
-        <v>295254.03</v>
+        <v>295380.35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aug-20</t>
+          <t>Oct-16</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>236263.76</v>
+        <v>236596.95</v>
       </c>
       <c r="D78" t="n">
-        <v>58950.93</v>
+        <v>59040.12</v>
       </c>
       <c r="E78" t="n">
-        <v>295214.69</v>
+        <v>295637.07</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aug-20</t>
+          <t>Nov-16</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>238559.9</v>
+        <v>240133.11</v>
       </c>
       <c r="D79" t="n">
-        <v>52498.9</v>
+        <v>52838.75</v>
       </c>
       <c r="E79" t="n">
-        <v>291058.8</v>
+        <v>292971.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aug-20</t>
+          <t>Nov-16</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>249386.81</v>
+        <v>251095.94</v>
       </c>
       <c r="D80" t="n">
-        <v>60630.61</v>
+        <v>61026.28</v>
       </c>
       <c r="E80" t="n">
-        <v>310017.42</v>
+        <v>312122.22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aug-20</t>
+          <t>Nov-16</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>231700.18</v>
+        <v>233210.6</v>
       </c>
       <c r="D81" t="n">
-        <v>60467.89</v>
+        <v>60872.07</v>
       </c>
       <c r="E81" t="n">
-        <v>292168.07</v>
+        <v>294082.67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sep-20</t>
+          <t>Nov-16</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>233749.04</v>
+        <v>234757.36</v>
       </c>
       <c r="D82" t="n">
-        <v>60601.56</v>
+        <v>60876.23</v>
       </c>
       <c r="E82" t="n">
-        <v>294350.6</v>
+        <v>295633.59</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sep-20</t>
+          <t>Dec-16</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>245101.63</v>
+        <v>248146.92</v>
       </c>
       <c r="D83" t="n">
-        <v>52761.1</v>
+        <v>53402.61</v>
       </c>
       <c r="E83" t="n">
-        <v>297862.73</v>
+        <v>301549.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sep-20</t>
+          <t>Dec-16</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>249581.25</v>
+        <v>252676.64</v>
       </c>
       <c r="D84" t="n">
-        <v>60367.12</v>
+        <v>61104.26</v>
       </c>
       <c r="E84" t="n">
-        <v>309948.37</v>
+        <v>313780.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sep-20</t>
+          <t>Dec-16</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>240061.95</v>
+        <v>243045.06</v>
       </c>
       <c r="D85" t="n">
-        <v>64545.01</v>
+        <v>65367.89</v>
       </c>
       <c r="E85" t="n">
-        <v>304606.96</v>
+        <v>308412.95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Oct-20</t>
+          <t>Dec-16</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>236922.65</v>
+        <v>238614.63</v>
       </c>
       <c r="D86" t="n">
-        <v>57215.12</v>
+        <v>57617.17</v>
       </c>
       <c r="E86" t="n">
-        <v>294137.77</v>
+        <v>296231.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Oct-20</t>
+          <t>Jan-17</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>239492.18</v>
+        <v>243685.92</v>
       </c>
       <c r="D87" t="n">
-        <v>53115.26</v>
+        <v>54046.14</v>
       </c>
       <c r="E87" t="n">
-        <v>292607.44</v>
+        <v>297732.06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Oct-20</t>
+          <t>Jan-17</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>245650.44</v>
+        <v>249960.28</v>
       </c>
       <c r="D88" t="n">
-        <v>60266.44</v>
+        <v>61322.94</v>
       </c>
       <c r="E88" t="n">
-        <v>305916.88</v>
+        <v>311283.22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Oct-20</t>
+          <t>Jan-17</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>242597.21</v>
+        <v>246890.56</v>
       </c>
       <c r="D89" t="n">
-        <v>63761.93</v>
+        <v>64893.98</v>
       </c>
       <c r="E89" t="n">
-        <v>306359.14</v>
+        <v>311784.54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nov-20</t>
+          <t>Jan-17</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>241028.98</v>
+        <v>243373.96</v>
       </c>
       <c r="D90" t="n">
-        <v>62260.17</v>
+        <v>62873.35</v>
       </c>
       <c r="E90" t="n">
-        <v>303289.15</v>
+        <v>306247.31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nov-20</t>
+          <t>Feb-17</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>240960.15</v>
+        <v>246199.48</v>
       </c>
       <c r="D91" t="n">
-        <v>63915.15</v>
+        <v>65346.73</v>
       </c>
       <c r="E91" t="n">
-        <v>304875.3</v>
+        <v>311546.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nov-20</t>
+          <t>Feb-17</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>248379.61</v>
+        <v>253788.28</v>
       </c>
       <c r="D92" t="n">
-        <v>57027.06</v>
+        <v>58253.15</v>
       </c>
       <c r="E92" t="n">
-        <v>305406.67</v>
+        <v>312041.43</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Nov-20</t>
+          <t>Feb-17</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>238582.27</v>
+        <v>243770.63</v>
       </c>
       <c r="D93" t="n">
-        <v>62693.22</v>
+        <v>64057.56</v>
       </c>
       <c r="E93" t="n">
-        <v>301275.49</v>
+        <v>307828.19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dec-20</t>
+          <t>Feb-17</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>243406.2</v>
+        <v>246249.47</v>
       </c>
       <c r="D94" t="n">
-        <v>63003.06</v>
+        <v>63741.83</v>
       </c>
       <c r="E94" t="n">
-        <v>306409.26</v>
+        <v>309991.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dec-20</t>
+          <t>Mar-17</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>246810.2</v>
+        <v>252758.82</v>
       </c>
       <c r="D95" t="n">
-        <v>61500.61</v>
+        <v>62995</v>
       </c>
       <c r="E95" t="n">
-        <v>308310.81</v>
+        <v>315753.82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dec-20</t>
+          <t>Mar-17</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>244005.19</v>
+        <v>249867.65</v>
       </c>
       <c r="D96" t="n">
-        <v>53786.49</v>
+        <v>55066.17</v>
       </c>
       <c r="E96" t="n">
-        <v>297791.68</v>
+        <v>304933.82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dec-20</t>
+          <t>Mar-17</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>241082.01</v>
+        <v>246886.12</v>
       </c>
       <c r="D97" t="n">
-        <v>63641.25</v>
+        <v>65174.17</v>
       </c>
       <c r="E97" t="n">
-        <v>304723.26</v>
+        <v>312060.29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jan-21</t>
+          <t>Mar-17</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>248398.7</v>
+        <v>251471.32</v>
       </c>
       <c r="D98" t="n">
-        <v>57914.34</v>
+        <v>58628.28</v>
       </c>
       <c r="E98" t="n">
-        <v>306313.04</v>
+        <v>310099.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jan-21</t>
+          <t>Apr-17</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>249896.13</v>
+        <v>255980.3</v>
       </c>
       <c r="D99" t="n">
-        <v>62056.29</v>
+        <v>63573.55</v>
       </c>
       <c r="E99" t="n">
-        <v>311952.42</v>
+        <v>319553.85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jan-21</t>
+          <t>Apr-17</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>283296.78</v>
+        <v>249117.39</v>
       </c>
       <c r="D100" t="n">
-        <v>66982.98</v>
+        <v>58896.99</v>
       </c>
       <c r="E100" t="n">
-        <v>350279.76</v>
+        <v>308014.38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jan-21</t>
+          <t>Apr-17</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>246457.18</v>
+        <v>252454.71</v>
       </c>
       <c r="D101" t="n">
-        <v>58541.75</v>
+        <v>59963.65</v>
       </c>
       <c r="E101" t="n">
-        <v>304998.93</v>
+        <v>312418.36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Feb-21</t>
+          <t>Apr-17</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>253316.61</v>
+        <v>256282.65</v>
       </c>
       <c r="D102" t="n">
-        <v>61214.54</v>
+        <v>61929.75</v>
       </c>
       <c r="E102" t="n">
-        <v>314531.15</v>
+        <v>318212.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Feb-21</t>
+          <t>May-17</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>257738.57</v>
+        <v>263653.48</v>
       </c>
       <c r="D103" t="n">
-        <v>64783.7</v>
+        <v>66273.53999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>322522.27</v>
+        <v>329927.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Feb-21</t>
+          <t>May-17</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>261976.07</v>
+        <v>247483.43</v>
       </c>
       <c r="D104" t="n">
-        <v>61194.85</v>
+        <v>57749.14</v>
       </c>
       <c r="E104" t="n">
-        <v>323170.92</v>
+        <v>305232.57</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Feb-21</t>
+          <t>May-17</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>253142.26</v>
+        <v>258950.2</v>
       </c>
       <c r="D105" t="n">
-        <v>61385.42</v>
+        <v>62791.27</v>
       </c>
       <c r="E105" t="n">
-        <v>314527.68</v>
+        <v>321741.47</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mar-21</t>
+          <t>May-17</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>258167.09</v>
+        <v>260864.23</v>
       </c>
       <c r="D106" t="n">
-        <v>73383.02</v>
+        <v>74145.3</v>
       </c>
       <c r="E106" t="n">
-        <v>331550.11</v>
+        <v>335009.53</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mar-21</t>
+          <t>Jun-17</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>260664.27</v>
+        <v>265805.51</v>
       </c>
       <c r="D107" t="n">
-        <v>66812.31</v>
+        <v>68131.14999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>327476.58</v>
+        <v>333936.66</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mar-21</t>
+          <t>Jun-17</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>264746.46</v>
+        <v>259718.99</v>
       </c>
       <c r="D108" t="n">
-        <v>63529.05</v>
+        <v>62353.53</v>
       </c>
       <c r="E108" t="n">
-        <v>328275.51</v>
+        <v>322072.52</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mar-21</t>
+          <t>Jun-17</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>253824.54</v>
+        <v>258831.21</v>
       </c>
       <c r="D109" t="n">
-        <v>63955.14</v>
+        <v>65211.31</v>
       </c>
       <c r="E109" t="n">
-        <v>317779.68</v>
+        <v>324042.52</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Apr-21</t>
+          <t>Jun-17</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>255287.63</v>
+        <v>257401.38</v>
       </c>
       <c r="D110" t="n">
-        <v>67205.10000000001</v>
+        <v>67771.60000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>322492.73</v>
+        <v>325172.98</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Apr-21</t>
+          <t>Jul-17</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>258024.35</v>
+        <v>261937.94</v>
       </c>
       <c r="D111" t="n">
-        <v>64909.62</v>
+        <v>65902.07000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>322933.97</v>
+        <v>327840.01</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Apr-21</t>
+          <t>Jul-17</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>274560.53</v>
+        <v>273570.95</v>
       </c>
       <c r="D112" t="n">
-        <v>57213.84</v>
+        <v>56883.43</v>
       </c>
       <c r="E112" t="n">
-        <v>331774.37</v>
+        <v>330454.38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Apr-21</t>
+          <t>Jul-17</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>260669.72</v>
+        <v>264591.84</v>
       </c>
       <c r="D113" t="n">
-        <v>58217.53</v>
+        <v>59112.85</v>
       </c>
       <c r="E113" t="n">
-        <v>318887.25</v>
+        <v>323704.69</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>May-21</t>
+          <t>Jul-17</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>256355.44</v>
+        <v>257806.28</v>
       </c>
       <c r="D114" t="n">
-        <v>68492.49000000001</v>
+        <v>68889.44</v>
       </c>
       <c r="E114" t="n">
-        <v>324847.93</v>
+        <v>326695.72</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>May-21</t>
+          <t>Aug-17</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>260520.95</v>
+        <v>263089.41</v>
       </c>
       <c r="D115" t="n">
-        <v>60563.2</v>
+        <v>61184.05</v>
       </c>
       <c r="E115" t="n">
-        <v>321084.15</v>
+        <v>324273.46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>May-21</t>
+          <t>Aug-17</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>264722.34</v>
+        <v>264813.1</v>
       </c>
       <c r="D116" t="n">
-        <v>62215.63</v>
+        <v>62210.36</v>
       </c>
       <c r="E116" t="n">
-        <v>326937.97</v>
+        <v>327023.46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>May-21</t>
+          <t>Aug-17</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>257698.36</v>
+        <v>260244.46</v>
       </c>
       <c r="D117" t="n">
-        <v>61267.89</v>
+        <v>61866.18</v>
       </c>
       <c r="E117" t="n">
-        <v>318966.25</v>
+        <v>322110.64</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jun-21</t>
+          <t>Aug-17</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>260248.19</v>
+        <v>260925.36</v>
       </c>
       <c r="D118" t="n">
-        <v>63836.62</v>
+        <v>64020.09</v>
       </c>
       <c r="E118" t="n">
-        <v>324084.81</v>
+        <v>324945.45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jun-21</t>
+          <t>Sep-17</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" t="n">
-        <v>273329.53</v>
+        <v>274326.62</v>
       </c>
       <c r="D119" t="n">
-        <v>63914.79</v>
+        <v>64156.3</v>
       </c>
       <c r="E119" t="n">
-        <v>337244.32</v>
+        <v>338482.92</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Jun-21</t>
+          <t>Sep-17</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>253578.03</v>
+        <v>253336.27</v>
       </c>
       <c r="D120" t="n">
-        <v>63333.78</v>
+        <v>63262.23</v>
       </c>
       <c r="E120" t="n">
-        <v>316911.81</v>
+        <v>316598.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Jun-21</t>
+          <t>Sep-17</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>257212.05</v>
+        <v>258197.96</v>
       </c>
       <c r="D121" t="n">
-        <v>64954.34</v>
+        <v>65184.57</v>
       </c>
       <c r="E121" t="n">
-        <v>322166.39</v>
+        <v>323382.53</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Jul-21</t>
+          <t>Sep-17</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="n">
-        <v>258001.1</v>
+        <v>257853.17</v>
       </c>
       <c r="D122" t="n">
-        <v>63245.95</v>
+        <v>63219.88</v>
       </c>
       <c r="E122" t="n">
-        <v>321247.05</v>
+        <v>321073.05</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Jul-21</t>
+          <t>Oct-17</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>271353.69</v>
+        <v>270665.83</v>
       </c>
       <c r="D123" t="n">
-        <v>66373.58</v>
+        <v>66196.25999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>337727.27</v>
+        <v>336862.09</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Jul-21</t>
+          <t>Oct-17</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>252525.2</v>
+        <v>251275.03</v>
       </c>
       <c r="D124" t="n">
-        <v>62302.27</v>
+        <v>61992.54</v>
       </c>
       <c r="E124" t="n">
-        <v>314827.47</v>
+        <v>313267.57</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jul-21</t>
+          <t>Oct-17</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>258150.3</v>
+        <v>257489.67</v>
       </c>
       <c r="D125" t="n">
-        <v>62108.24</v>
+        <v>61955.81</v>
       </c>
       <c r="E125" t="n">
-        <v>320258.54</v>
+        <v>319445.48</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Aug-21</t>
+          <t>Oct-17</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>270089.22</v>
+        <v>269004.34</v>
       </c>
       <c r="D126" t="n">
-        <v>64537.01</v>
+        <v>64285.87</v>
       </c>
       <c r="E126" t="n">
-        <v>334626.23</v>
+        <v>333290.21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Aug-21</t>
+          <t>Nov-17</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
-        <v>260903.02</v>
+        <v>258640.93</v>
       </c>
       <c r="D127" t="n">
-        <v>67713.78</v>
+        <v>67109.55</v>
       </c>
       <c r="E127" t="n">
-        <v>328616.8</v>
+        <v>325750.48</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Aug-21</t>
+          <t>Nov-17</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>269220.91</v>
+        <v>266458.77</v>
       </c>
       <c r="D128" t="n">
-        <v>66038.53999999999</v>
+        <v>65363.65</v>
       </c>
       <c r="E128" t="n">
-        <v>335259.45</v>
+        <v>331822.42</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Aug-21</t>
+          <t>Nov-17</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>252946.47</v>
+        <v>250714.72</v>
       </c>
       <c r="D129" t="n">
-        <v>61171.67</v>
+        <v>60634.32</v>
       </c>
       <c r="E129" t="n">
-        <v>314118.14</v>
+        <v>311349.04</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sep-21</t>
+          <t>Nov-17</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>272825</v>
+        <v>270896.01</v>
       </c>
       <c r="D130" t="n">
-        <v>61534.74</v>
+        <v>61105.35</v>
       </c>
       <c r="E130" t="n">
-        <v>334359.74</v>
+        <v>332001.36</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sep-21</t>
+          <t>Dec-17</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
-        <v>263938.24</v>
+        <v>260177.87</v>
       </c>
       <c r="D131" t="n">
-        <v>67762.59</v>
+        <v>66796.64999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>331700.83</v>
+        <v>326974.52</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sep-21</t>
+          <t>Dec-17</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>260946.66</v>
+        <v>257061.69</v>
       </c>
       <c r="D132" t="n">
-        <v>64314.13</v>
+        <v>63358.66</v>
       </c>
       <c r="E132" t="n">
-        <v>325260.79</v>
+        <v>320420.35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sep-21</t>
+          <t>Dec-17</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>240736.68</v>
+        <v>237328.69</v>
       </c>
       <c r="D133" t="n">
-        <v>58860.77</v>
+        <v>58027.05</v>
       </c>
       <c r="E133" t="n">
-        <v>299597.45</v>
+        <v>295355.74</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Oct-21</t>
+          <t>Dec-17</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>265299.4</v>
+        <v>262736.42</v>
       </c>
       <c r="D134" t="n">
-        <v>58138.33</v>
+        <v>57575.62</v>
       </c>
       <c r="E134" t="n">
-        <v>323437.73</v>
+        <v>320312.04</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Oct-21</t>
+          <t>Jan-18</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>270614.14</v>
+        <v>265380.12</v>
       </c>
       <c r="D135" t="n">
-        <v>60685.83</v>
+        <v>59538.02</v>
       </c>
       <c r="E135" t="n">
-        <v>331299.97</v>
+        <v>324918.14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Oct-21</t>
+          <t>Jan-18</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>258389.71</v>
+        <v>253325.66</v>
       </c>
       <c r="D136" t="n">
-        <v>63809.81</v>
+        <v>62562.27</v>
       </c>
       <c r="E136" t="n">
-        <v>322199.52</v>
+        <v>315887.93</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Oct-21</t>
+          <t>Jan-18</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>258023.88</v>
+        <v>252987.47</v>
       </c>
       <c r="D137" t="n">
-        <v>56217.16</v>
+        <v>55135.84</v>
       </c>
       <c r="E137" t="n">
-        <v>314241.04</v>
+        <v>308123.31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nov-21</t>
+          <t>Jan-18</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>267499.63</v>
+        <v>264282.8</v>
       </c>
       <c r="D138" t="n">
-        <v>60033.92</v>
+        <v>59304.55</v>
       </c>
       <c r="E138" t="n">
-        <v>327533.55</v>
+        <v>323587.35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Nov-21</t>
+          <t>Feb-18</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" t="n">
-        <v>259165.56</v>
+        <v>253221.65</v>
       </c>
       <c r="D139" t="n">
-        <v>62697.18</v>
+        <v>61260.71</v>
       </c>
       <c r="E139" t="n">
-        <v>321862.74</v>
+        <v>314482.36</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Nov-21</t>
+          <t>Feb-18</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>259103.76</v>
+        <v>253097.27</v>
       </c>
       <c r="D140" t="n">
-        <v>60992.53</v>
+        <v>59585.88</v>
       </c>
       <c r="E140" t="n">
-        <v>320096.29</v>
+        <v>312683.15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nov-21</t>
+          <t>Feb-18</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>258258.39</v>
+        <v>252281.88</v>
       </c>
       <c r="D141" t="n">
-        <v>57857.03</v>
+        <v>56517.37</v>
       </c>
       <c r="E141" t="n">
-        <v>316115.42</v>
+        <v>308799.25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dec-21</t>
+          <t>Feb-18</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>261688.37</v>
+        <v>258148.12</v>
       </c>
       <c r="D142" t="n">
-        <v>62596.33</v>
+        <v>61744.06</v>
       </c>
       <c r="E142" t="n">
-        <v>324284.7</v>
+        <v>319892.18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dec-21</t>
+          <t>Mar-18</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>264979.11</v>
+        <v>258250.05</v>
       </c>
       <c r="D143" t="n">
-        <v>58154.36</v>
+        <v>56679.79</v>
       </c>
       <c r="E143" t="n">
-        <v>323133.47</v>
+        <v>314929.84</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dec-21</t>
+          <t>Mar-18</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>267718.69</v>
+        <v>260887.55</v>
       </c>
       <c r="D144" t="n">
-        <v>55131.49</v>
+        <v>53727.29</v>
       </c>
       <c r="E144" t="n">
-        <v>322850.18</v>
+        <v>314614.84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dec-21</t>
+          <t>Mar-18</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>255724.07</v>
+        <v>249203.6</v>
       </c>
       <c r="D145" t="n">
-        <v>61283.58</v>
+        <v>59715.62</v>
       </c>
       <c r="E145" t="n">
-        <v>317007.65</v>
+        <v>308919.22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Jan-22</t>
+          <t>Mar-18</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>258046.14</v>
+        <v>254272.61</v>
       </c>
       <c r="D146" t="n">
-        <v>59621.34</v>
+        <v>58742.93</v>
       </c>
       <c r="E146" t="n">
-        <v>317667.48</v>
+        <v>313015.54</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Jan-22</t>
+          <t>Apr-18</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C147" t="n">
-        <v>257245.94</v>
+        <v>250397.7</v>
       </c>
       <c r="D147" t="n">
-        <v>57789.46</v>
+        <v>56246.81</v>
       </c>
       <c r="E147" t="n">
-        <v>315035.4</v>
+        <v>306644.51</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Jan-22</t>
+          <t>Apr-18</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>256709.52</v>
+        <v>249857.89</v>
       </c>
       <c r="D148" t="n">
-        <v>60305.83</v>
+        <v>58697.68</v>
       </c>
       <c r="E148" t="n">
-        <v>317015.35</v>
+        <v>308555.57</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Jan-22</t>
+          <t>Apr-18</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>255444.11</v>
+        <v>248629.52</v>
       </c>
       <c r="D149" t="n">
-        <v>58754.34</v>
+        <v>57179.99</v>
       </c>
       <c r="E149" t="n">
-        <v>314198.45</v>
+        <v>305809.51</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Feb-22</t>
+          <t>Apr-18</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>257600.91</v>
+        <v>253809.13</v>
       </c>
       <c r="D150" t="n">
-        <v>60513.77</v>
+        <v>59619.26</v>
       </c>
       <c r="E150" t="n">
-        <v>318114.68</v>
+        <v>313428.39</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Feb-22</t>
+          <t>May-18</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C151" t="n">
-        <v>256772.73</v>
+        <v>250101.75</v>
       </c>
       <c r="D151" t="n">
-        <v>60552.3</v>
+        <v>58981.26</v>
       </c>
       <c r="E151" t="n">
-        <v>317325.03</v>
+        <v>309083.01</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Feb-22</t>
+          <t>May-18</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>248401.47</v>
+        <v>241912.8</v>
       </c>
       <c r="D152" t="n">
-        <v>58287.25</v>
+        <v>56763.46</v>
       </c>
       <c r="E152" t="n">
-        <v>306688.72</v>
+        <v>298676.26</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Feb-22</t>
+          <t>May-18</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>255548.22</v>
+        <v>248901.4</v>
       </c>
       <c r="D153" t="n">
-        <v>60977.72</v>
+        <v>59392.11</v>
       </c>
       <c r="E153" t="n">
-        <v>316525.94</v>
+        <v>308293.51</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mar-22</t>
+          <t>May-18</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>251289.5</v>
+        <v>247786.03</v>
       </c>
       <c r="D154" t="n">
-        <v>60021.89</v>
+        <v>59184.92</v>
       </c>
       <c r="E154" t="n">
-        <v>311311.39</v>
+        <v>306970.95</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mar-22</t>
+          <t>Jun-18</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C155" t="n">
-        <v>257205.93</v>
+        <v>251141.51</v>
       </c>
       <c r="D155" t="n">
-        <v>57967.63</v>
+        <v>56587.71</v>
       </c>
       <c r="E155" t="n">
-        <v>315173.56</v>
+        <v>307729.22</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Mar-22</t>
+          <t>Jun-18</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>249458.78</v>
+        <v>243552.37</v>
       </c>
       <c r="D156" t="n">
-        <v>57974.04</v>
+        <v>56596.36</v>
       </c>
       <c r="E156" t="n">
-        <v>307432.82</v>
+        <v>300148.73</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mar-22</t>
+          <t>Jun-18</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>249303.86</v>
+        <v>243388.35</v>
       </c>
       <c r="D157" t="n">
-        <v>63124.61</v>
+        <v>61644.59</v>
       </c>
       <c r="E157" t="n">
-        <v>312428.47</v>
+        <v>305032.94</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Apr-22</t>
+          <t>Jun-18</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="n">
-        <v>250860.65</v>
+        <v>247820.32</v>
       </c>
       <c r="D158" t="n">
-        <v>61461.52</v>
+        <v>60722.25</v>
       </c>
       <c r="E158" t="n">
-        <v>312322.17</v>
+        <v>308542.57</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Apr-22</t>
+          <t>Jul-18</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" t="n">
-        <v>256134.31</v>
+        <v>251175.38</v>
       </c>
       <c r="D159" t="n">
-        <v>58140.93</v>
+        <v>57008.02</v>
       </c>
       <c r="E159" t="n">
-        <v>314275.24</v>
+        <v>308183.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Apr-22</t>
+          <t>Jul-18</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>249253.33</v>
+        <v>244413.75</v>
       </c>
       <c r="D160" t="n">
-        <v>57185.46</v>
+        <v>56066.53</v>
       </c>
       <c r="E160" t="n">
-        <v>306438.79</v>
+        <v>300480.28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Apr-22</t>
+          <t>Jul-18</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>247450.19</v>
+        <v>242629.21</v>
       </c>
       <c r="D161" t="n">
-        <v>60282.02</v>
+        <v>59104.92</v>
       </c>
       <c r="E161" t="n">
-        <v>307732.21</v>
+        <v>301734.13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>May-22</t>
+          <t>Jul-18</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>246172.11</v>
+        <v>243764.2</v>
       </c>
       <c r="D162" t="n">
-        <v>61305.59</v>
+        <v>60714.56</v>
       </c>
       <c r="E162" t="n">
-        <v>307477.7</v>
+        <v>304478.76</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>May-22</t>
+          <t>Aug-18</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
-        <v>244431</v>
+        <v>240878.19</v>
       </c>
       <c r="D163" t="n">
-        <v>63942.49</v>
+        <v>63069.8</v>
       </c>
       <c r="E163" t="n">
-        <v>308373.49</v>
+        <v>303947.99</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>May-22</t>
+          <t>Aug-18</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>240092.19</v>
+        <v>236605.34</v>
       </c>
       <c r="D164" t="n">
-        <v>53974.56</v>
+        <v>53175.32</v>
       </c>
       <c r="E164" t="n">
-        <v>294066.75</v>
+        <v>289780.66</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>May-22</t>
+          <t>Aug-18</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>249542.71</v>
+        <v>245992.68</v>
       </c>
       <c r="D165" t="n">
-        <v>61279.83</v>
+        <v>60411.19</v>
       </c>
       <c r="E165" t="n">
-        <v>310822.54</v>
+        <v>306403.87</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Jun-22</t>
+          <t>Aug-18</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>245653.25</v>
+        <v>244023.71</v>
       </c>
       <c r="D166" t="n">
-        <v>61150.15</v>
+        <v>60750.56</v>
       </c>
       <c r="E166" t="n">
-        <v>306803.4</v>
+        <v>304774.27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Jun-22</t>
+          <t>Sep-18</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C167" t="n">
-        <v>241754.54</v>
+        <v>239829.33</v>
       </c>
       <c r="D167" t="n">
-        <v>58112.84</v>
+        <v>57640.78</v>
       </c>
       <c r="E167" t="n">
-        <v>299867.38</v>
+        <v>297470.11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Jun-22</t>
+          <t>Sep-18</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>240004.13</v>
+        <v>238111.9</v>
       </c>
       <c r="D168" t="n">
-        <v>53757.26</v>
+        <v>53321.93</v>
       </c>
       <c r="E168" t="n">
-        <v>293761.39</v>
+        <v>291433.83</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Jun-22</t>
+          <t>Sep-18</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>249008.79</v>
+        <v>247084.97</v>
       </c>
       <c r="D169" t="n">
-        <v>58923.41</v>
+        <v>58453.37</v>
       </c>
       <c r="E169" t="n">
-        <v>307932.2</v>
+        <v>305538.34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Jul-22</t>
+          <t>Sep-18</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="n">
-        <v>238283.39</v>
+        <v>237532.22</v>
       </c>
       <c r="D170" t="n">
-        <v>58309.81</v>
+        <v>58125.33</v>
       </c>
       <c r="E170" t="n">
-        <v>296593.2</v>
+        <v>295657.55</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Jul-22</t>
+          <t>Oct-18</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>242216.57</v>
+        <v>242020.04</v>
       </c>
       <c r="D171" t="n">
-        <v>56100.49</v>
+        <v>56033.68</v>
       </c>
       <c r="E171" t="n">
-        <v>298317.06</v>
+        <v>298053.72</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Jul-22</t>
+          <t>Oct-18</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>235474.39</v>
+        <v>235252.99</v>
       </c>
       <c r="D172" t="n">
-        <v>56223.83</v>
+        <v>56191.6</v>
       </c>
       <c r="E172" t="n">
-        <v>291698.22</v>
+        <v>291444.59</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Jul-22</t>
+          <t>Oct-18</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>245045.86</v>
+        <v>244844.4</v>
       </c>
       <c r="D173" t="n">
-        <v>56667.61</v>
+        <v>56602.94</v>
       </c>
       <c r="E173" t="n">
-        <v>301713.47</v>
+        <v>301447.34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Aug-22</t>
+          <t>Oct-18</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="n">
-        <v>236518.19</v>
+        <v>236643.02</v>
       </c>
       <c r="D174" t="n">
-        <v>58525.74</v>
+        <v>58559.9</v>
       </c>
       <c r="E174" t="n">
-        <v>295043.93</v>
+        <v>295202.92</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Aug-22</t>
+          <t>Nov-18</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C175" t="n">
-        <v>233835.49</v>
+        <v>235128.95</v>
       </c>
       <c r="D175" t="n">
-        <v>52740.09</v>
+        <v>53008.54</v>
       </c>
       <c r="E175" t="n">
-        <v>286575.58</v>
+        <v>288137.49</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aug-22</t>
+          <t>Nov-18</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>233936.41</v>
+        <v>235264.64</v>
       </c>
       <c r="D176" t="n">
-        <v>56210.81</v>
+        <v>56542.9</v>
       </c>
       <c r="E176" t="n">
-        <v>290147.22</v>
+        <v>291807.54</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Aug-22</t>
+          <t>Nov-18</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
-        <v>243620.33</v>
+        <v>245025.14</v>
       </c>
       <c r="D177" t="n">
-        <v>61254.42</v>
+        <v>61635.86</v>
       </c>
       <c r="E177" t="n">
-        <v>304874.75</v>
+        <v>306661</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sep-22</t>
+          <t>Nov-18</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
-        <v>242612.51</v>
+        <v>243561.55</v>
       </c>
       <c r="D178" t="n">
-        <v>57664.02</v>
+        <v>57881.9</v>
       </c>
       <c r="E178" t="n">
-        <v>300276.53</v>
+        <v>301443.45</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sep-22</t>
+          <t>Dec-18</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>237077.59</v>
+        <v>239821.19</v>
       </c>
       <c r="D179" t="n">
-        <v>52352.88</v>
+        <v>52935.73</v>
       </c>
       <c r="E179" t="n">
-        <v>289430.47</v>
+        <v>292756.92</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sep-22</t>
+          <t>Dec-18</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>237130.45</v>
+        <v>239891.49</v>
       </c>
       <c r="D180" t="n">
-        <v>56137.12</v>
+        <v>56790.98</v>
       </c>
       <c r="E180" t="n">
-        <v>293267.57</v>
+        <v>296682.47</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sep-22</t>
+          <t>Dec-18</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" t="n">
-        <v>243604.69</v>
+        <v>246435.24</v>
       </c>
       <c r="D181" t="n">
-        <v>57113.17</v>
+        <v>57762.14</v>
       </c>
       <c r="E181" t="n">
-        <v>300717.86</v>
+        <v>304197.38</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Oct-22</t>
+          <t>Dec-18</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>245103.27</v>
+        <v>246662.01</v>
       </c>
       <c r="D182" t="n">
-        <v>62377.76</v>
+        <v>62788.07</v>
       </c>
       <c r="E182" t="n">
-        <v>307481.03</v>
+        <v>309450.08</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Oct-22</t>
+          <t>Jan-19</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C183" t="n">
-        <v>239306.31</v>
+        <v>243293.35</v>
       </c>
       <c r="D183" t="n">
-        <v>56449.07</v>
+        <v>57398.09</v>
       </c>
       <c r="E183" t="n">
-        <v>295755.38</v>
+        <v>300691.44</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Oct-22</t>
+          <t>Jan-19</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>243186.03</v>
+        <v>247271.33</v>
       </c>
       <c r="D184" t="n">
-        <v>56017.56</v>
+        <v>56948.09</v>
       </c>
       <c r="E184" t="n">
-        <v>299203.59</v>
+        <v>304219.42</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Oct-22</t>
+          <t>Jan-19</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" t="n">
-        <v>244175.28</v>
+        <v>248243.1</v>
       </c>
       <c r="D185" t="n">
-        <v>57703.13</v>
+        <v>58659.04</v>
       </c>
       <c r="E185" t="n">
-        <v>301878.41</v>
+        <v>306902.14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nov-22</t>
+          <t>Jan-19</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="n">
-        <v>245633.53</v>
+        <v>247732.58</v>
       </c>
       <c r="D186" t="n">
-        <v>58353.2</v>
+        <v>58845.7</v>
       </c>
       <c r="E186" t="n">
-        <v>303986.73</v>
+        <v>306578.28</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Nov-22</t>
+          <t>Feb-19</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>242378.37</v>
+        <v>247280.31</v>
       </c>
       <c r="D187" t="n">
-        <v>59106.55</v>
+        <v>60315.7</v>
       </c>
       <c r="E187" t="n">
-        <v>301484.92</v>
+        <v>307596.01</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Nov-22</t>
+          <t>Feb-19</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>251273.07</v>
+        <v>256402.46</v>
       </c>
       <c r="D188" t="n">
-        <v>60240.02</v>
+        <v>61474.52</v>
       </c>
       <c r="E188" t="n">
-        <v>311513.09</v>
+        <v>317876.98</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Nov-22</t>
+          <t>Feb-19</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>255190.13</v>
+        <v>260398.54</v>
       </c>
       <c r="D189" t="n">
-        <v>56032.45</v>
+        <v>57150.14</v>
       </c>
       <c r="E189" t="n">
-        <v>311222.58</v>
+        <v>317548.68</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Dec-22</t>
+          <t>Feb-19</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" t="n">
-        <v>251212.76</v>
+        <v>253738.97</v>
       </c>
       <c r="D190" t="n">
-        <v>59501.31</v>
+        <v>60095.54</v>
       </c>
       <c r="E190" t="n">
-        <v>310714.07</v>
+        <v>313834.51</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Dec-22</t>
+          <t>Mar-19</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C191" t="n">
-        <v>256087.34</v>
+        <v>261881.29</v>
       </c>
       <c r="D191" t="n">
-        <v>56941.56</v>
+        <v>58217.68</v>
       </c>
       <c r="E191" t="n">
-        <v>313028.9</v>
+        <v>320098.97</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Dec-22</t>
+          <t>Mar-19</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>245583.09</v>
+        <v>251098.72</v>
       </c>
       <c r="D192" t="n">
-        <v>58126.9</v>
+        <v>59431.91</v>
       </c>
       <c r="E192" t="n">
-        <v>303709.99</v>
+        <v>310530.63</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Dec-22</t>
+          <t>Mar-19</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" t="n">
-        <v>241203.84</v>
+        <v>246592.79</v>
       </c>
       <c r="D193" t="n">
-        <v>56241.17</v>
+        <v>57493.5</v>
       </c>
       <c r="E193" t="n">
-        <v>297445.01</v>
+        <v>304086.29</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Jan-23</t>
+          <t>Mar-19</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" t="n">
-        <v>247531.3</v>
+        <v>250175.13</v>
       </c>
       <c r="D194" t="n">
-        <v>60374.78</v>
+        <v>61020.89</v>
       </c>
       <c r="E194" t="n">
-        <v>307906.08</v>
+        <v>311196.02</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Jan-23</t>
+          <t>Apr-19</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>255473.04</v>
+        <v>261318.41</v>
       </c>
       <c r="D195" t="n">
-        <v>64272.23</v>
+        <v>65748.37</v>
       </c>
       <c r="E195" t="n">
-        <v>319745.27</v>
+        <v>327066.78</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Jan-23</t>
+          <t>Apr-19</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>253264.25</v>
+        <v>259046.54</v>
       </c>
       <c r="D196" t="n">
-        <v>57505.68</v>
+        <v>58812.28</v>
       </c>
       <c r="E196" t="n">
-        <v>310769.93</v>
+        <v>317858.82</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Jan-23</t>
+          <t>Apr-19</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>241830.43</v>
+        <v>247318.28</v>
       </c>
       <c r="D197" t="n">
-        <v>59769.28</v>
+        <v>61129.7</v>
       </c>
       <c r="E197" t="n">
-        <v>301599.71</v>
+        <v>308447.98</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Feb-23</t>
+          <t>Apr-19</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" t="n">
-        <v>244413.39</v>
+        <v>246947.63</v>
       </c>
       <c r="D198" t="n">
-        <v>66313.11</v>
+        <v>67012.48</v>
       </c>
       <c r="E198" t="n">
-        <v>310726.5</v>
+        <v>313960.11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Feb-23</t>
+          <t>May-19</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C199" t="n">
-        <v>261044.37</v>
+        <v>266664.76</v>
       </c>
       <c r="D199" t="n">
-        <v>61270.61</v>
+        <v>62592.86</v>
       </c>
       <c r="E199" t="n">
-        <v>322314.98</v>
+        <v>329257.62</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Feb-23</t>
+          <t>May-19</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>245289.94</v>
+        <v>250554.61</v>
       </c>
       <c r="D200" t="n">
-        <v>63427.26</v>
+        <v>64787.32</v>
       </c>
       <c r="E200" t="n">
-        <v>308717.2</v>
+        <v>315341.93</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Feb-23</t>
+          <t>May-19</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" t="n">
-        <v>247669.44</v>
+        <v>252966.05</v>
       </c>
       <c r="D201" t="n">
-        <v>64206.39</v>
+        <v>65585.56</v>
       </c>
       <c r="E201" t="n">
-        <v>311875.83</v>
+        <v>318551.61</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mar-23</t>
+          <t>May-19</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="n">
-        <v>242830.73</v>
+        <v>245119.68</v>
       </c>
       <c r="D202" t="n">
-        <v>62224.39</v>
+        <v>62820.51</v>
       </c>
       <c r="E202" t="n">
-        <v>305055.12</v>
+        <v>307940.19</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mar-23</t>
+          <t>Jun-19</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C203" t="n">
-        <v>259344.54</v>
+        <v>264321.53</v>
       </c>
       <c r="D203" t="n">
-        <v>61690.69</v>
+        <v>62874.3</v>
       </c>
       <c r="E203" t="n">
-        <v>321035.23</v>
+        <v>327195.83</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mar-23</t>
+          <t>Jun-19</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>249133.87</v>
+        <v>253891.33</v>
       </c>
       <c r="D204" t="n">
-        <v>64539.81</v>
+        <v>65773.95</v>
       </c>
       <c r="E204" t="n">
-        <v>313673.68</v>
+        <v>319665.28</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Mar-23</t>
+          <t>Jun-19</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
-        <v>247158.65</v>
+        <v>251875.57</v>
       </c>
       <c r="D205" t="n">
-        <v>62576.29</v>
+        <v>63777.98</v>
       </c>
       <c r="E205" t="n">
-        <v>309734.94</v>
+        <v>315653.55</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Apr-23</t>
+          <t>Jun-19</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" t="n">
-        <v>252097.66</v>
+        <v>254149.16</v>
       </c>
       <c r="D206" t="n">
-        <v>63924.37</v>
+        <v>64451.23</v>
       </c>
       <c r="E206" t="n">
-        <v>316022.03</v>
+        <v>318600.39</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Apr-23</t>
+          <t>Jul-19</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C207" t="n">
-        <v>263415.69</v>
+        <v>267536.25</v>
       </c>
       <c r="D207" t="n">
-        <v>58566.42</v>
+        <v>59495.21</v>
       </c>
       <c r="E207" t="n">
-        <v>321982.11</v>
+        <v>327031.46</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Apr-23</t>
+          <t>Jul-19</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>246684.72</v>
+        <v>250550.21</v>
       </c>
       <c r="D208" t="n">
-        <v>67452.75</v>
+        <v>68500.06</v>
       </c>
       <c r="E208" t="n">
-        <v>314137.47</v>
+        <v>319050.27</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Apr-23</t>
+          <t>Jul-19</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>255359.19</v>
+        <v>259325.17</v>
       </c>
       <c r="D209" t="n">
-        <v>60177.59</v>
+        <v>61130.02</v>
       </c>
       <c r="E209" t="n">
-        <v>315536.78</v>
+        <v>320455.19</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>May-23</t>
+          <t>Jul-19</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210" t="n">
-        <v>265181.11</v>
+        <v>266850.49</v>
       </c>
       <c r="D210" t="n">
-        <v>63774</v>
+        <v>64184.34</v>
       </c>
       <c r="E210" t="n">
-        <v>328955.11</v>
+        <v>331034.83</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>May-23</t>
+          <t>Aug-19</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C211" t="n">
-        <v>268900.34</v>
+        <v>271862.76</v>
       </c>
       <c r="D211" t="n">
-        <v>60944.3</v>
+        <v>61617.09</v>
       </c>
       <c r="E211" t="n">
-        <v>329844.64</v>
+        <v>333479.85</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>May-23</t>
+          <t>Aug-19</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>265132.95</v>
+        <v>267997.36</v>
       </c>
       <c r="D212" t="n">
-        <v>70670.19</v>
+        <v>71436.14999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>335803.14</v>
+        <v>339433.51</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>May-23</t>
+          <t>Aug-19</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>257421.56</v>
+        <v>260258.85</v>
       </c>
       <c r="D213" t="n">
-        <v>64579.48</v>
+        <v>65282.26</v>
       </c>
       <c r="E213" t="n">
-        <v>322001.04</v>
+        <v>325541.11</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jun-23</t>
+          <t>Aug-19</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214" t="n">
-        <v>267705.2</v>
+        <v>268716.8</v>
       </c>
       <c r="D214" t="n">
-        <v>67806.85000000001</v>
+        <v>68060.16</v>
       </c>
       <c r="E214" t="n">
-        <v>335512.05</v>
+        <v>336776.96</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jun-23</t>
+          <t>Sep-19</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C215" t="n">
-        <v>329910.08</v>
+        <v>262498.56</v>
       </c>
       <c r="D215" t="n">
-        <v>81168.92999999999</v>
+        <v>64556.06</v>
       </c>
       <c r="E215" t="n">
-        <v>411079.01</v>
+        <v>327054.62</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Jun-23</t>
+          <t>Sep-19</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>269846.11</v>
+        <v>271171.2</v>
       </c>
       <c r="D216" t="n">
-        <v>61419.72</v>
+        <v>61776.99</v>
       </c>
       <c r="E216" t="n">
-        <v>331265.83</v>
+        <v>332948.19</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Jun-23</t>
+          <t>Sep-19</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>254240.67</v>
+        <v>255552.21</v>
       </c>
       <c r="D217" t="n">
-        <v>57492.24</v>
+        <v>57817.93</v>
       </c>
       <c r="E217" t="n">
-        <v>311732.91</v>
+        <v>313370.14</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jul-23</t>
+          <t>Sep-19</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218" t="n">
-        <v>264441.83</v>
+        <v>264571.12</v>
       </c>
       <c r="D218" t="n">
-        <v>67844.55</v>
+        <v>67876.63</v>
       </c>
       <c r="E218" t="n">
-        <v>332286.38</v>
+        <v>332447.75</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Jul-23</t>
+          <t>Oct-19</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C219" t="n">
-        <v>304846.04</v>
+        <v>270036.28</v>
       </c>
       <c r="D219" t="n">
-        <v>72498.73</v>
+        <v>63937.93</v>
       </c>
       <c r="E219" t="n">
-        <v>377344.77</v>
+        <v>333974.21</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Jul-23</t>
+          <t>Oct-19</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>275476.91</v>
+        <v>275031.22</v>
       </c>
       <c r="D220" t="n">
-        <v>58043.41</v>
+        <v>57996.9</v>
       </c>
       <c r="E220" t="n">
-        <v>333520.3199999999</v>
+        <v>333028.12</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Jul-23</t>
+          <t>Oct-19</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" t="n">
-        <v>250181.2</v>
+        <v>249840.34</v>
       </c>
       <c r="D221" t="n">
-        <v>60252.01</v>
+        <v>60163.09</v>
       </c>
       <c r="E221" t="n">
-        <v>310433.21</v>
+        <v>310003.43</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aug-23</t>
+          <t>Oct-19</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>265993.59</v>
+        <v>265238.98</v>
       </c>
       <c r="D222" t="n">
-        <v>65441.76</v>
+        <v>65263.97</v>
       </c>
       <c r="E222" t="n">
-        <v>331435.35</v>
+        <v>330502.95</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aug-23</t>
+          <t>Nov-19</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C223" t="n">
-        <v>273346.16</v>
+        <v>254281.63</v>
       </c>
       <c r="D223" t="n">
-        <v>67591.39999999999</v>
+        <v>62884.03</v>
       </c>
       <c r="E223" t="n">
-        <v>340937.5599999999</v>
+        <v>317165.66</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Aug-23</t>
+          <t>Nov-19</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>262660.71</v>
+        <v>260728.84</v>
       </c>
       <c r="D224" t="n">
-        <v>62750.06</v>
+        <v>62270.38</v>
       </c>
       <c r="E224" t="n">
-        <v>325410.77</v>
+        <v>322999.22</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Aug-23</t>
+          <t>Nov-19</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>258771.72</v>
+        <v>256784.14</v>
       </c>
       <c r="D225" t="n">
-        <v>58792.49</v>
+        <v>58354.1</v>
       </c>
       <c r="E225" t="n">
-        <v>317564.21</v>
+        <v>315138.24</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Sep-23</t>
+          <t>Nov-19</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226" t="n">
-        <v>261417.21</v>
+        <v>259925.49</v>
       </c>
       <c r="D226" t="n">
-        <v>60869.88</v>
+        <v>60533.88</v>
       </c>
       <c r="E226" t="n">
-        <v>322287.09</v>
+        <v>320459.37</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Sep-23</t>
+          <t>Dec-19</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C227" t="n">
-        <v>267447.12</v>
+        <v>255484.4</v>
       </c>
       <c r="D227" t="n">
-        <v>68249.44</v>
+        <v>65258.63</v>
       </c>
       <c r="E227" t="n">
-        <v>335696.56</v>
+        <v>320743.03</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Sep-23</t>
+          <t>Dec-19</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>257289.31</v>
+        <v>253977.39</v>
       </c>
       <c r="D228" t="n">
-        <v>64416.89</v>
+        <v>63564.69</v>
       </c>
       <c r="E228" t="n">
-        <v>321706.2</v>
+        <v>317542.08</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Sep-23</t>
+          <t>Dec-19</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" t="n">
-        <v>257720.77</v>
+        <v>254339.32</v>
       </c>
       <c r="D229" t="n">
-        <v>58378.87</v>
+        <v>57618.52</v>
       </c>
       <c r="E229" t="n">
-        <v>316099.64</v>
+        <v>311957.84</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Oct-23</t>
+          <t>Dec-19</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="n">
-        <v>260247.16</v>
+        <v>258079.03</v>
       </c>
       <c r="D230" t="n">
-        <v>58441.64</v>
+        <v>57963.13</v>
       </c>
       <c r="E230" t="n">
-        <v>318688.8</v>
+        <v>316042.16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Oct-23</t>
+          <t>Jan-20</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C231" t="n">
-        <v>327289.8</v>
+        <v>316140.84</v>
       </c>
       <c r="D231" t="n">
-        <v>77293.13</v>
+        <v>74624.63</v>
       </c>
       <c r="E231" t="n">
-        <v>404582.93</v>
+        <v>390765.47</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Oct-23</t>
+          <t>Jan-20</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>268908.23</v>
+        <v>264062.26</v>
       </c>
       <c r="D232" t="n">
-        <v>63540.21</v>
+        <v>62398.98</v>
       </c>
       <c r="E232" t="n">
-        <v>332448.44</v>
+        <v>326461.24</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Oct-23</t>
+          <t>Jan-20</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>255330.69</v>
+        <v>250748.57</v>
       </c>
       <c r="D233" t="n">
-        <v>61076.3</v>
+        <v>59968.98</v>
       </c>
       <c r="E233" t="n">
-        <v>316406.99</v>
+        <v>310717.55</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Nov-23</t>
+          <t>Jan-20</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234" t="n">
-        <v>258370.28</v>
+        <v>255593.42</v>
       </c>
       <c r="D234" t="n">
-        <v>59458.71</v>
+        <v>58819.55</v>
       </c>
       <c r="E234" t="n">
-        <v>317828.99</v>
+        <v>314412.97</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Nov-23</t>
+          <t>Feb-20</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C235" t="n">
-        <v>295614.89</v>
+        <v>286646.45</v>
       </c>
       <c r="D235" t="n">
-        <v>71893.27</v>
+        <v>69706.09</v>
       </c>
       <c r="E235" t="n">
-        <v>367508.16</v>
+        <v>356352.54</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Nov-23</t>
+          <t>Feb-20</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>290534.52</v>
+        <v>284207.89</v>
       </c>
       <c r="D236" t="n">
-        <v>67925.24000000001</v>
+        <v>66449.42</v>
       </c>
       <c r="E236" t="n">
-        <v>358459.76</v>
+        <v>350657.31</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Nov-23</t>
+          <t>Feb-20</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237" t="n">
-        <v>255078.09</v>
+        <v>249504.22</v>
       </c>
       <c r="D237" t="n">
-        <v>54377.12</v>
+        <v>53199.97</v>
       </c>
       <c r="E237" t="n">
-        <v>309455.21</v>
+        <v>302704.19</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Dec-23</t>
+          <t>Feb-20</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" t="n">
-        <v>248869.09</v>
+        <v>245725.95</v>
       </c>
       <c r="D238" t="n">
-        <v>64448.95</v>
+        <v>63631.65</v>
       </c>
       <c r="E238" t="n">
-        <v>313318.04</v>
+        <v>309357.6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Dec-23</t>
+          <t>Mar-20</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C239" t="n">
-        <v>283496.67</v>
+        <v>275328.29</v>
       </c>
       <c r="D239" t="n">
-        <v>65755.77</v>
+        <v>63848.4</v>
       </c>
       <c r="E239" t="n">
-        <v>349252.44</v>
+        <v>339176.69</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Dec-23</t>
+          <t>Mar-20</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>275545.3</v>
+        <v>268836.09</v>
       </c>
       <c r="D240" t="n">
-        <v>65474.36</v>
+        <v>63879.18</v>
       </c>
       <c r="E240" t="n">
-        <v>341019.66</v>
+        <v>332715.27</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Dec-23</t>
+          <t>Mar-20</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" t="n">
-        <v>270490.61</v>
+        <v>263833.96</v>
       </c>
       <c r="D241" t="n">
-        <v>61156.66</v>
+        <v>59648.04</v>
       </c>
       <c r="E241" t="n">
-        <v>331647.27</v>
+        <v>323482</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jan-24</t>
+          <t>Mar-20</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242" t="n">
-        <v>249479.26</v>
+        <v>246118.33</v>
       </c>
       <c r="D242" t="n">
-        <v>59522.09</v>
+        <v>58719.1</v>
       </c>
       <c r="E242" t="n">
-        <v>309001.35</v>
+        <v>304837.43</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Jan-24</t>
+          <t>Apr-20</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C243" t="n">
-        <v>259400.4</v>
+        <v>252182.47</v>
       </c>
       <c r="D243" t="n">
-        <v>63652.51</v>
+        <v>61883.27</v>
       </c>
       <c r="E243" t="n">
-        <v>323052.91</v>
+        <v>314065.74</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Jan-24</t>
+          <t>Apr-20</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>259675.19</v>
+        <v>253080.59</v>
       </c>
       <c r="D244" t="n">
-        <v>58634.65</v>
+        <v>57143.44</v>
       </c>
       <c r="E244" t="n">
-        <v>318309.84</v>
+        <v>310224.03</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Jan-24</t>
+          <t>Apr-20</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" t="n">
-        <v>257696.74</v>
+        <v>251114.69</v>
       </c>
       <c r="D245" t="n">
-        <v>57497.92</v>
+        <v>56024.43</v>
       </c>
       <c r="E245" t="n">
-        <v>315194.66</v>
+        <v>307139.12</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Apr-20</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="n">
-        <v>257173.22</v>
+        <v>253633.74</v>
       </c>
       <c r="D246" t="n">
-        <v>62157.43</v>
+        <v>61302.29</v>
       </c>
       <c r="E246" t="n">
-        <v>319330.65</v>
+        <v>314936.03</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>May-20</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C247" t="n">
-        <v>253767.9</v>
+        <v>247068.12</v>
       </c>
       <c r="D247" t="n">
-        <v>65994.32000000001</v>
+        <v>64268.18</v>
       </c>
       <c r="E247" t="n">
-        <v>319762.22</v>
+        <v>311336.3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>May-20</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>254326.47</v>
+        <v>247928.8</v>
       </c>
       <c r="D248" t="n">
-        <v>56552.6</v>
+        <v>55122.9</v>
       </c>
       <c r="E248" t="n">
-        <v>310879.07</v>
+        <v>303051.7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>May-20</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>260472.48</v>
+        <v>253919.05</v>
       </c>
       <c r="D249" t="n">
-        <v>60130.46</v>
+        <v>58615.47</v>
       </c>
       <c r="E249" t="n">
-        <v>320602.94</v>
+        <v>312534.52</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Mar-24</t>
+          <t>May-20</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250" t="n">
-        <v>246167.66</v>
+        <v>242829.34</v>
       </c>
       <c r="D250" t="n">
-        <v>59955</v>
+        <v>59144</v>
       </c>
       <c r="E250" t="n">
-        <v>306122.66</v>
+        <v>301973.34</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Mar-24</t>
+          <t>Jun-20</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
-        <v>245252.94</v>
+        <v>239352.86</v>
       </c>
       <c r="D251" t="n">
-        <v>58385.5</v>
+        <v>56967.08</v>
       </c>
       <c r="E251" t="n">
-        <v>303638.44</v>
+        <v>296319.94</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Mar-24</t>
+          <t>Jun-20</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>254315.98</v>
+        <v>248402.08</v>
       </c>
       <c r="D252" t="n">
-        <v>63294.37</v>
+        <v>61843.42</v>
       </c>
       <c r="E252" t="n">
-        <v>317610.35</v>
+        <v>310245.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Mar-24</t>
+          <t>Jun-20</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" t="n">
-        <v>246055.85</v>
+        <v>240276.8</v>
       </c>
       <c r="D253" t="n">
-        <v>61144.95</v>
+        <v>59725.27</v>
       </c>
       <c r="E253" t="n">
-        <v>307200.8</v>
+        <v>300002.07</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Apr-24</t>
+          <t>Jun-20</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254" t="n">
-        <v>241324.71</v>
+        <v>238309.64</v>
       </c>
       <c r="D254" t="n">
-        <v>57698.77</v>
+        <v>56975.66</v>
       </c>
       <c r="E254" t="n">
-        <v>299023.48</v>
+        <v>295285.3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Apr-24</t>
+          <t>Jul-20</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C255" t="n">
-        <v>241148.3</v>
+        <v>236294.91</v>
       </c>
       <c r="D255" t="n">
-        <v>55823.4</v>
+        <v>54681.73</v>
       </c>
       <c r="E255" t="n">
-        <v>296971.7</v>
+        <v>290976.64</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Apr-24</t>
+          <t>Jul-20</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>248771.09</v>
+        <v>243869.33</v>
       </c>
       <c r="D256" t="n">
-        <v>58373.45</v>
+        <v>57214.23</v>
       </c>
       <c r="E256" t="n">
-        <v>307144.54</v>
+        <v>301083.56</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Apr-24</t>
+          <t>Jul-20</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" t="n">
-        <v>245711.47</v>
+        <v>240862.77</v>
       </c>
       <c r="D257" t="n">
-        <v>59558.07</v>
+        <v>58384.18</v>
       </c>
       <c r="E257" t="n">
-        <v>305269.54</v>
+        <v>299246.95</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>May-24</t>
+          <t>Jul-20</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" t="n">
-        <v>239926.89</v>
+        <v>237455.18</v>
       </c>
       <c r="D258" t="n">
-        <v>55142.4</v>
+        <v>54561.61</v>
       </c>
       <c r="E258" t="n">
-        <v>295069.29</v>
+        <v>292016.79</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>May-24</t>
+          <t>Aug-20</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C259" t="n">
-        <v>238222.71</v>
+        <v>234611.45</v>
       </c>
       <c r="D259" t="n">
-        <v>58977.56</v>
+        <v>58102.61</v>
       </c>
       <c r="E259" t="n">
-        <v>297200.27</v>
+        <v>292714.06</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>May-24</t>
+          <t>Aug-20</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>247189.22</v>
+        <v>243517.68</v>
       </c>
       <c r="D260" t="n">
-        <v>55278.86</v>
+        <v>54429.96</v>
       </c>
       <c r="E260" t="n">
-        <v>302468.08</v>
+        <v>297947.64</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>May-24</t>
+          <t>Aug-20</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" t="n">
-        <v>243738.44</v>
+        <v>240106.87</v>
       </c>
       <c r="D261" t="n">
-        <v>60833.4</v>
+        <v>59942.42</v>
       </c>
       <c r="E261" t="n">
-        <v>304571.84</v>
+        <v>300049.29</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Jun-24</t>
+          <t>Aug-20</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" t="n">
-        <v>231835.4</v>
+        <v>230001.57</v>
       </c>
       <c r="D262" t="n">
-        <v>57878.36</v>
+        <v>57438.26</v>
       </c>
       <c r="E262" t="n">
-        <v>289713.76</v>
+        <v>287439.83</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Jun-24</t>
+          <t>Sep-20</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C263" t="n">
-        <v>235774.1</v>
+        <v>233542.31</v>
       </c>
       <c r="D263" t="n">
-        <v>59873.71</v>
+        <v>59333.95</v>
       </c>
       <c r="E263" t="n">
-        <v>295647.81</v>
+        <v>292876.26</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Jun-24</t>
+          <t>Sep-20</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>239778.48</v>
+        <v>237516.55</v>
       </c>
       <c r="D264" t="n">
-        <v>51242.1</v>
+        <v>50715.37</v>
       </c>
       <c r="E264" t="n">
-        <v>291020.58</v>
+        <v>288231.92</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Jun-24</t>
+          <t>Sep-20</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" t="n">
-        <v>233940.38</v>
+        <v>231698.44</v>
       </c>
       <c r="D265" t="n">
-        <v>59309.79</v>
+        <v>58762.02</v>
       </c>
       <c r="E265" t="n">
-        <v>293250.17</v>
+        <v>290460.46</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Jul-24</t>
+          <t>Sep-20</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266" t="n">
-        <v>236795.33</v>
+        <v>235626.37</v>
       </c>
       <c r="D266" t="n">
-        <v>55076.42</v>
+        <v>54790.73</v>
       </c>
       <c r="E266" t="n">
-        <v>291871.75</v>
+        <v>290417.1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Jul-24</t>
+          <t>Oct-20</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C267" t="n">
-        <v>240564.31</v>
+        <v>239808.97</v>
       </c>
       <c r="D267" t="n">
-        <v>53916.07</v>
+        <v>53694.2</v>
       </c>
       <c r="E267" t="n">
-        <v>294480.38</v>
+        <v>293503.17</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Jul-24</t>
+          <t>Oct-20</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>239219.31</v>
+        <v>238425.3</v>
       </c>
       <c r="D268" t="n">
-        <v>50884.2</v>
+        <v>50677.9</v>
       </c>
       <c r="E268" t="n">
-        <v>290103.51</v>
+        <v>289103.2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Jul-24</t>
+          <t>Oct-20</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C269" t="n">
-        <v>233517.91</v>
+        <v>232714.28</v>
       </c>
       <c r="D269" t="n">
-        <v>58504.53</v>
+        <v>58313</v>
       </c>
       <c r="E269" t="n">
-        <v>292022.44</v>
+        <v>291027.28</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Aug-24</t>
+          <t>Oct-20</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270" t="n">
-        <v>234197.02</v>
+        <v>233680.52</v>
       </c>
       <c r="D270" t="n">
-        <v>55214.74</v>
+        <v>55087.6</v>
       </c>
       <c r="E270" t="n">
-        <v>289411.76</v>
+        <v>288768.12</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Aug-24</t>
+          <t>Nov-20</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C271" t="n">
-        <v>244964.26</v>
+        <v>245704.86</v>
       </c>
       <c r="D271" t="n">
-        <v>54085.42</v>
+        <v>54204.84</v>
       </c>
       <c r="E271" t="n">
-        <v>299049.68</v>
+        <v>299909.7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Aug-24</t>
+          <t>Nov-20</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>243479.96</v>
+        <v>244190.18</v>
       </c>
       <c r="D272" t="n">
-        <v>50991.14</v>
+        <v>51096.88</v>
       </c>
       <c r="E272" t="n">
-        <v>294471.1</v>
+        <v>295287.06</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Aug-24</t>
+          <t>Nov-20</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C273" t="n">
-        <v>239173.68</v>
+        <v>239859.3</v>
       </c>
       <c r="D273" t="n">
-        <v>62142.58</v>
+        <v>62355.54</v>
       </c>
       <c r="E273" t="n">
-        <v>301316.26</v>
+        <v>302214.84</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Sep-24</t>
+          <t>Nov-20</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274" t="n">
-        <v>225841.9</v>
+        <v>225865.77</v>
       </c>
       <c r="D274" t="n">
-        <v>54256.16</v>
+        <v>54264.87</v>
       </c>
       <c r="E274" t="n">
-        <v>280098.06</v>
+        <v>280130.64</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Sep-24</t>
+          <t>Dec-20</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C275" t="n">
-        <v>245809.03</v>
+        <v>247967.71</v>
       </c>
       <c r="D275" t="n">
-        <v>55395.91</v>
+        <v>55861</v>
       </c>
       <c r="E275" t="n">
-        <v>301204.94</v>
+        <v>303828.71</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Sep-24</t>
+          <t>Dec-20</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>244081.84</v>
+        <v>246206.48</v>
       </c>
       <c r="D276" t="n">
-        <v>52698.03</v>
+        <v>53134.28</v>
       </c>
       <c r="E276" t="n">
-        <v>296779.87</v>
+        <v>299340.76</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Sep-24</t>
+          <t>Dec-20</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277" t="n">
-        <v>240567.52</v>
+        <v>242653.82</v>
       </c>
       <c r="D277" t="n">
-        <v>59560.44</v>
+        <v>60074.91</v>
       </c>
       <c r="E277" t="n">
-        <v>300127.96</v>
+        <v>302728.73</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Oct-24</t>
+          <t>Dec-20</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>240179.3</v>
+        <v>240927.87</v>
       </c>
       <c r="D278" t="n">
-        <v>57054.57</v>
+        <v>57229.11</v>
       </c>
       <c r="E278" t="n">
-        <v>297233.87</v>
+        <v>298156.98</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Oct-24</t>
+          <t>Jan-21</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C279" t="n">
-        <v>246158.72</v>
+        <v>249469.2</v>
       </c>
       <c r="D279" t="n">
-        <v>55696.22</v>
+        <v>56427.46</v>
       </c>
       <c r="E279" t="n">
-        <v>301854.94</v>
+        <v>305896.66</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Oct-24</t>
+          <t>Jan-21</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>241314.96</v>
+        <v>244515.94</v>
       </c>
       <c r="D280" t="n">
-        <v>54287.43</v>
+        <v>55002.86</v>
       </c>
       <c r="E280" t="n">
-        <v>295602.39</v>
+        <v>299518.8</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Oct-24</t>
+          <t>Jan-21</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>243812.16</v>
+        <v>247092.83</v>
       </c>
       <c r="D281" t="n">
-        <v>57752.13</v>
+        <v>58507.45</v>
       </c>
       <c r="E281" t="n">
-        <v>301564.29</v>
+        <v>305600.28</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Nov-24</t>
+          <t>Jan-21</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" t="n">
-        <v>244394.64</v>
+        <v>245713.24</v>
       </c>
       <c r="D282" t="n">
-        <v>64091.99</v>
+        <v>64476.79</v>
       </c>
       <c r="E282" t="n">
-        <v>308486.63</v>
+        <v>310190.03</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Nov-24</t>
+          <t>Feb-21</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C283" t="n">
-        <v>250218.43</v>
+        <v>254590.57</v>
       </c>
       <c r="D283" t="n">
-        <v>56388.65</v>
+        <v>57355.74</v>
       </c>
       <c r="E283" t="n">
-        <v>306607.08</v>
+        <v>311946.31</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Nov-24</t>
+          <t>Feb-21</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>249405.73</v>
+        <v>253764.38</v>
       </c>
       <c r="D284" t="n">
-        <v>55444.26</v>
+        <v>56397.29</v>
       </c>
       <c r="E284" t="n">
-        <v>304849.99</v>
+        <v>310161.67</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Nov-24</t>
+          <t>Feb-21</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285" t="n">
-        <v>234862.56</v>
+        <v>238856.14</v>
       </c>
       <c r="D285" t="n">
-        <v>55421.57</v>
+        <v>56349.55</v>
       </c>
       <c r="E285" t="n">
-        <v>290284.13</v>
+        <v>295205.69</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Dec-24</t>
+          <t>Feb-21</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286" t="n">
-        <v>237404.91</v>
+        <v>239003</v>
       </c>
       <c r="D286" t="n">
-        <v>60870.82</v>
+        <v>61303.94</v>
       </c>
       <c r="E286" t="n">
-        <v>298275.73</v>
+        <v>300306.94</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Dec-24</t>
+          <t>Mar-21</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C287" t="n">
-        <v>249640.61</v>
+        <v>254489.41</v>
       </c>
       <c r="D287" t="n">
-        <v>63024.27</v>
+        <v>64276.47</v>
       </c>
       <c r="E287" t="n">
-        <v>312664.88</v>
+        <v>318765.88</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Dec-24</t>
+          <t>Mar-21</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>250756.85</v>
+        <v>255638.83</v>
       </c>
       <c r="D288" t="n">
-        <v>56939.05</v>
+        <v>58037.04</v>
       </c>
       <c r="E288" t="n">
-        <v>307695.9</v>
+        <v>313675.87</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Dec-24</t>
+          <t>Mar-21</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C289" t="n">
-        <v>245965.14</v>
+        <v>250729.61</v>
       </c>
       <c r="D289" t="n">
-        <v>51028.94</v>
+        <v>51959.73</v>
       </c>
       <c r="E289" t="n">
-        <v>296994.08</v>
+        <v>302689.34</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Jan-25</t>
+          <t>Mar-21</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C290" t="n">
-        <v>245962.09</v>
+        <v>247795.66</v>
       </c>
       <c r="D290" t="n">
-        <v>63007.58</v>
+        <v>63498.7</v>
       </c>
       <c r="E290" t="n">
-        <v>308969.67</v>
+        <v>311294.36</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Jan-25</t>
+          <t>Apr-21</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>243508.94</v>
+        <v>248249.5</v>
       </c>
       <c r="D291" t="n">
-        <v>65202.97</v>
+        <v>66515.09</v>
       </c>
       <c r="E291" t="n">
-        <v>308711.91</v>
+        <v>314764.59</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Jan-25</t>
+          <t>Apr-21</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>325330.05</v>
+        <v>331735.43</v>
       </c>
       <c r="D292" t="n">
-        <v>73872.57000000001</v>
+        <v>75309.44</v>
       </c>
       <c r="E292" t="n">
-        <v>399202.62</v>
+        <v>407044.87</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Jan-25</t>
+          <t>Apr-21</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" t="n">
-        <v>252228.04</v>
+        <v>257190.37</v>
       </c>
       <c r="D293" t="n">
-        <v>62586.12</v>
+        <v>63822.06</v>
       </c>
       <c r="E293" t="n">
-        <v>314814.16</v>
+        <v>321012.43</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Feb-25</t>
+          <t>Apr-21</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" t="n">
-        <v>251643.11</v>
+        <v>253412.45</v>
       </c>
       <c r="D294" t="n">
-        <v>62915.92</v>
+        <v>63372.44</v>
       </c>
       <c r="E294" t="n">
-        <v>314559.03</v>
+        <v>316784.89</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Feb-25</t>
+          <t>May-21</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C295" t="n">
-        <v>247168.91</v>
+        <v>251659.65</v>
       </c>
       <c r="D295" t="n">
-        <v>60676.79</v>
+        <v>61796.97</v>
       </c>
       <c r="E295" t="n">
-        <v>307845.7</v>
+        <v>313456.62</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Feb-25</t>
+          <t>May-21</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>294611.39</v>
+        <v>300079.08</v>
       </c>
       <c r="D296" t="n">
-        <v>64992.63</v>
+        <v>66174.75999999999</v>
       </c>
       <c r="E296" t="n">
-        <v>359604.02</v>
+        <v>366253.84</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Feb-25</t>
+          <t>May-21</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C297" t="n">
-        <v>254217.44</v>
+        <v>258878.57</v>
       </c>
       <c r="D297" t="n">
-        <v>60499.37</v>
+        <v>61606.49</v>
       </c>
       <c r="E297" t="n">
-        <v>314716.81</v>
+        <v>320485.06</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Mar-25</t>
+          <t>May-21</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C298" t="n">
-        <v>257559.09</v>
+        <v>259098.7</v>
       </c>
       <c r="D298" t="n">
-        <v>63511.83</v>
+        <v>63901.69</v>
       </c>
       <c r="E298" t="n">
-        <v>321070.92</v>
+        <v>323000.39</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Mar-25</t>
+          <t>Jun-21</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C299" t="n">
-        <v>258184.61</v>
+        <v>262129.95</v>
       </c>
       <c r="D299" t="n">
-        <v>59797.96</v>
+        <v>60715.25</v>
       </c>
       <c r="E299" t="n">
-        <v>317982.57</v>
+        <v>322845.2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Mar-25</t>
+          <t>Jun-21</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>275205.35</v>
+        <v>279519.53</v>
       </c>
       <c r="D300" t="n">
-        <v>60514.48</v>
+        <v>61437.01</v>
       </c>
       <c r="E300" t="n">
-        <v>335719.83</v>
+        <v>340956.54</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Mar-25</t>
+          <t>Jun-21</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C301" t="n">
-        <v>254114.48</v>
+        <v>258009.42</v>
       </c>
       <c r="D301" t="n">
-        <v>62437.75</v>
+        <v>63397.23</v>
       </c>
       <c r="E301" t="n">
-        <v>316552.23</v>
+        <v>321406.65</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Apr-25</t>
+          <t>Jun-21</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C302" t="n">
-        <v>263261.34</v>
+        <v>264385.98</v>
       </c>
       <c r="D302" t="n">
-        <v>60226.74</v>
+        <v>60477.63</v>
       </c>
       <c r="E302" t="n">
-        <v>323488.08</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Apr-25</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>2</v>
-      </c>
-      <c r="C303" t="n">
-        <v>264157.09</v>
-      </c>
-      <c r="D303" t="n">
-        <v>65444.81</v>
-      </c>
-      <c r="E303" t="n">
-        <v>329601.9</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Apr-25</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>3</v>
-      </c>
-      <c r="C304" t="n">
-        <v>270305.97</v>
-      </c>
-      <c r="D304" t="n">
-        <v>67421.82000000001</v>
-      </c>
-      <c r="E304" t="n">
-        <v>337727.79</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Apr-25</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>4</v>
-      </c>
-      <c r="C305" t="n">
-        <v>253614.54</v>
-      </c>
-      <c r="D305" t="n">
-        <v>58688.02</v>
-      </c>
-      <c r="E305" t="n">
-        <v>312302.56</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>May-25</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>1</v>
-      </c>
-      <c r="C306" t="n">
-        <v>253868.41</v>
-      </c>
-      <c r="D306" t="n">
-        <v>66359.78999999999</v>
-      </c>
-      <c r="E306" t="n">
-        <v>320228.2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>May-25</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>2</v>
-      </c>
-      <c r="C307" t="n">
-        <v>267008.49</v>
-      </c>
-      <c r="D307" t="n">
-        <v>64112.38</v>
-      </c>
-      <c r="E307" t="n">
-        <v>331120.87</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>May-25</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>3</v>
-      </c>
-      <c r="C308" t="n">
-        <v>268129.89</v>
-      </c>
-      <c r="D308" t="n">
-        <v>61752.18</v>
-      </c>
-      <c r="E308" t="n">
-        <v>329882.07</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>May-25</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>4</v>
-      </c>
-      <c r="C309" t="n">
-        <v>271081.99</v>
-      </c>
-      <c r="D309" t="n">
-        <v>61312.41</v>
-      </c>
-      <c r="E309" t="n">
-        <v>332394.4</v>
+        <v>324863.61</v>
       </c>
     </row>
   </sheetData>

--- a/data/Indirect_Costs.xlsx
+++ b/data/Indirect_Costs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>256252</v>
@@ -501,20 +501,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mar-15</t>
+          <t>Feb-15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>254173.4</v>
+        <v>248943.32</v>
       </c>
       <c r="D4" t="n">
-        <v>59563.88</v>
+        <v>58903.54</v>
       </c>
       <c r="E4" t="n">
-        <v>313737.28</v>
+        <v>307846.86</v>
       </c>
     </row>
     <row r="5">
@@ -524,54 +524,54 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>264112.43</v>
+        <v>263422.55</v>
       </c>
       <c r="D5" t="n">
-        <v>67591.36</v>
+        <v>62623.08</v>
       </c>
       <c r="E5" t="n">
-        <v>331703.79</v>
+        <v>326045.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apr-15</t>
+          <t>Mar-15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>188892.22</v>
+        <v>253801.42</v>
       </c>
       <c r="D6" t="n">
-        <v>47579.96</v>
+        <v>66923.61</v>
       </c>
       <c r="E6" t="n">
-        <v>236472.18</v>
+        <v>320725.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apr-15</t>
+          <t>Mar-15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>253509.96</v>
+        <v>249422.89</v>
       </c>
       <c r="D7" t="n">
-        <v>59261.41</v>
+        <v>58588.09</v>
       </c>
       <c r="E7" t="n">
-        <v>312771.37</v>
+        <v>308010.98</v>
       </c>
     </row>
     <row r="8">
@@ -581,54 +581,54 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>262094.55</v>
+        <v>261755.11</v>
       </c>
       <c r="D8" t="n">
-        <v>58823.93</v>
+        <v>56341.11</v>
       </c>
       <c r="E8" t="n">
-        <v>320918.48</v>
+        <v>318096.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>May-15</t>
+          <t>Apr-15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>215579.67</v>
+        <v>246864.29</v>
       </c>
       <c r="D9" t="n">
-        <v>53258.62</v>
+        <v>62645.68</v>
       </c>
       <c r="E9" t="n">
-        <v>268838.29</v>
+        <v>309509.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>May-15</t>
+          <t>Apr-15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>251574.86</v>
+        <v>248324.47</v>
       </c>
       <c r="D10" t="n">
-        <v>61821.92</v>
+        <v>61173.26</v>
       </c>
       <c r="E10" t="n">
-        <v>313396.78</v>
+        <v>309497.73</v>
       </c>
     </row>
     <row r="11">
@@ -638,54 +638,54 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>256409.72</v>
+        <v>256220.7</v>
       </c>
       <c r="D11" t="n">
-        <v>56240.4</v>
+        <v>54994.35</v>
       </c>
       <c r="E11" t="n">
-        <v>312650.12</v>
+        <v>311215.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jun-15</t>
+          <t>May-15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>246516.21</v>
+        <v>261063.26</v>
       </c>
       <c r="D12" t="n">
-        <v>57382.05</v>
+        <v>61832.07</v>
       </c>
       <c r="E12" t="n">
-        <v>303898.26</v>
+        <v>322895.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jun-15</t>
+          <t>May-15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>257220.5</v>
+        <v>254555.6</v>
       </c>
       <c r="D13" t="n">
-        <v>57911.03</v>
+        <v>57371.78</v>
       </c>
       <c r="E13" t="n">
-        <v>315131.53</v>
+        <v>311927.38</v>
       </c>
     </row>
     <row r="14">
@@ -695,54 +695,54 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>256445.89</v>
+        <v>256275.93</v>
       </c>
       <c r="D14" t="n">
-        <v>59926.77</v>
+        <v>59285.64</v>
       </c>
       <c r="E14" t="n">
-        <v>316372.66</v>
+        <v>315561.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jul-15</t>
+          <t>Jun-15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>313997.16</v>
+        <v>255532.82</v>
       </c>
       <c r="D15" t="n">
-        <v>77551.86</v>
+        <v>63533.22</v>
       </c>
       <c r="E15" t="n">
-        <v>391549.02</v>
+        <v>319066.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jul-15</t>
+          <t>Jun-15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>257210.94</v>
+        <v>321785.86</v>
       </c>
       <c r="D16" t="n">
-        <v>59657.91</v>
+        <v>74678.81</v>
       </c>
       <c r="E16" t="n">
-        <v>316868.85</v>
+        <v>396464.67</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>256818.04</v>
+        <v>256642.67</v>
       </c>
       <c r="D17" t="n">
-        <v>67408.34</v>
+        <v>67066.08</v>
       </c>
       <c r="E17" t="n">
-        <v>324226.38</v>
+        <v>323708.75</v>
       </c>
     </row>
     <row r="18">
@@ -771,35 +771,35 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>194178.19</v>
+        <v>259354.2</v>
       </c>
       <c r="D18" t="n">
-        <v>43293.36</v>
+        <v>60038.28</v>
       </c>
       <c r="E18" t="n">
-        <v>237471.55</v>
+        <v>319392.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aug-15</t>
+          <t>Jul-15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>293340</v>
+        <v>296862.82</v>
       </c>
       <c r="D19" t="n">
-        <v>66615.81</v>
+        <v>65098.04</v>
       </c>
       <c r="E19" t="n">
-        <v>359955.81</v>
+        <v>361960.86</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>261725.06</v>
+        <v>261268.93</v>
       </c>
       <c r="D20" t="n">
-        <v>55341.53</v>
+        <v>59004.33</v>
       </c>
       <c r="E20" t="n">
-        <v>317066.59</v>
+        <v>320273.26</v>
       </c>
     </row>
     <row r="21">
@@ -831,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>253459.1</v>
+        <v>254555.19</v>
       </c>
       <c r="D21" t="n">
-        <v>66009.82000000001</v>
+        <v>62283.51</v>
       </c>
       <c r="E21" t="n">
-        <v>319468.92</v>
+        <v>316838.7</v>
       </c>
     </row>
     <row r="22">
@@ -847,35 +847,35 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>232989.1</v>
+        <v>198228.01</v>
       </c>
       <c r="D22" t="n">
-        <v>53872.02</v>
+        <v>47184.07</v>
       </c>
       <c r="E22" t="n">
-        <v>286861.12</v>
+        <v>245412.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sep-15</t>
+          <t>Aug-15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>277886.27</v>
+        <v>279675.32</v>
       </c>
       <c r="D23" t="n">
-        <v>63998.35</v>
+        <v>63244.8</v>
       </c>
       <c r="E23" t="n">
-        <v>341884.62</v>
+        <v>342920.12</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>254935.32</v>
+        <v>254562.19</v>
       </c>
       <c r="D24" t="n">
-        <v>57044.32</v>
+        <v>58840.9</v>
       </c>
       <c r="E24" t="n">
-        <v>311979.64</v>
+        <v>313403.09</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>256137.55</v>
+        <v>256540.54</v>
       </c>
       <c r="D25" t="n">
-        <v>67966.83</v>
+        <v>66068.86</v>
       </c>
       <c r="E25" t="n">
-        <v>324104.38</v>
+        <v>322609.4</v>
       </c>
     </row>
     <row r="26">
@@ -923,35 +923,35 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>250118.05</v>
+        <v>232592.44</v>
       </c>
       <c r="D26" t="n">
-        <v>53028.83</v>
+        <v>49650.04</v>
       </c>
       <c r="E26" t="n">
-        <v>303146.88</v>
+        <v>282242.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oct-15</t>
+          <t>Sep-15</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>271812.19</v>
+        <v>273213.71</v>
       </c>
       <c r="D27" t="n">
-        <v>62276.74</v>
+        <v>62013.93</v>
       </c>
       <c r="E27" t="n">
-        <v>334088.93</v>
+        <v>335227.64</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>255114.97</v>
+        <v>254806.65</v>
       </c>
       <c r="D28" t="n">
-        <v>61919.48</v>
+        <v>62788.55</v>
       </c>
       <c r="E28" t="n">
-        <v>317034.45</v>
+        <v>317595.2</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>264625.46</v>
+        <v>264705.21</v>
       </c>
       <c r="D29" t="n">
-        <v>68381.07000000001</v>
+        <v>67402.86</v>
       </c>
       <c r="E29" t="n">
-        <v>333006.53</v>
+        <v>332108.07</v>
       </c>
     </row>
     <row r="30">
@@ -999,35 +999,35 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>251859.72</v>
+        <v>242975.16</v>
       </c>
       <c r="D30" t="n">
-        <v>57029.44</v>
+        <v>55310.83</v>
       </c>
       <c r="E30" t="n">
-        <v>308889.16</v>
+        <v>298285.99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nov-15</t>
+          <t>Oct-15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>267810.38</v>
+        <v>269391.62</v>
       </c>
       <c r="D31" t="n">
-        <v>65413.94</v>
+        <v>65513.94</v>
       </c>
       <c r="E31" t="n">
-        <v>333224.32</v>
+        <v>334905.56</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>255266.32</v>
+        <v>255007.8</v>
       </c>
       <c r="D32" t="n">
-        <v>61628.53</v>
+        <v>62038.02</v>
       </c>
       <c r="E32" t="n">
-        <v>316894.85</v>
+        <v>317045.82</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>256774.89</v>
+        <v>256710.41</v>
       </c>
       <c r="D33" t="n">
-        <v>61720.5</v>
+        <v>61206.35</v>
       </c>
       <c r="E33" t="n">
-        <v>318495.39</v>
+        <v>317916.76</v>
       </c>
     </row>
     <row r="34">
@@ -1075,35 +1075,35 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>260325.54</v>
+        <v>255778.9</v>
       </c>
       <c r="D34" t="n">
-        <v>63972.75</v>
+        <v>63088.4</v>
       </c>
       <c r="E34" t="n">
-        <v>324298.29</v>
+        <v>318867.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dec-15</t>
+          <t>Nov-15</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>262369.59</v>
+        <v>264408.09</v>
       </c>
       <c r="D35" t="n">
-        <v>66712.86</v>
+        <v>67094.42</v>
       </c>
       <c r="E35" t="n">
-        <v>329082.45</v>
+        <v>331502.51</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>258320</v>
+        <v>258107.03</v>
       </c>
       <c r="D36" t="n">
-        <v>59750.55</v>
+        <v>59935.21</v>
       </c>
       <c r="E36" t="n">
-        <v>318070.55</v>
+        <v>318042.24</v>
       </c>
     </row>
     <row r="37">
@@ -1135,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>259073.05</v>
+        <v>258957.1</v>
       </c>
       <c r="D37" t="n">
-        <v>66509.74000000001</v>
+        <v>66232.58</v>
       </c>
       <c r="E37" t="n">
-        <v>325582.79</v>
+        <v>325189.68</v>
       </c>
     </row>
     <row r="38">
@@ -1151,35 +1151,35 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>258812.61</v>
+        <v>256455.59</v>
       </c>
       <c r="D38" t="n">
-        <v>67717.67999999999</v>
+        <v>67255.42</v>
       </c>
       <c r="E38" t="n">
-        <v>326530.29</v>
+        <v>323711.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jan-16</t>
+          <t>Dec-15</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>245217.18</v>
+        <v>247527.6</v>
       </c>
       <c r="D39" t="n">
-        <v>66406.2</v>
+        <v>66974.5</v>
       </c>
       <c r="E39" t="n">
-        <v>311623.38</v>
+        <v>314502.1</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>256901.49</v>
+        <v>256712.96</v>
       </c>
       <c r="D40" t="n">
-        <v>59518.79</v>
+        <v>59591.43</v>
       </c>
       <c r="E40" t="n">
-        <v>316420.28</v>
+        <v>316304.39</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>257301.89</v>
+        <v>257161.87</v>
       </c>
       <c r="D41" t="n">
-        <v>57767.15</v>
+        <v>57608.88</v>
       </c>
       <c r="E41" t="n">
-        <v>315069.04</v>
+        <v>314770.75</v>
       </c>
     </row>
     <row r="42">
@@ -1227,35 +1227,35 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>255594.35</v>
+        <v>254333.8</v>
       </c>
       <c r="D42" t="n">
-        <v>65496.19</v>
+        <v>65245.37</v>
       </c>
       <c r="E42" t="n">
-        <v>321090.54</v>
+        <v>319579.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Feb-16</t>
+          <t>Jan-16</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>255690.84</v>
+        <v>258467.47</v>
       </c>
       <c r="D43" t="n">
-        <v>61814.56</v>
+        <v>62444.78</v>
       </c>
       <c r="E43" t="n">
-        <v>317505.4</v>
+        <v>320912.25</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>250101.06</v>
+        <v>249920.93</v>
       </c>
       <c r="D44" t="n">
-        <v>58420.39</v>
+        <v>58436.11</v>
       </c>
       <c r="E44" t="n">
-        <v>308521.45</v>
+        <v>308357.04</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>258920.74</v>
+        <v>258764.87</v>
       </c>
       <c r="D45" t="n">
-        <v>60036.1</v>
+        <v>59936.35</v>
       </c>
       <c r="E45" t="n">
-        <v>318956.84</v>
+        <v>318701.22</v>
       </c>
     </row>
     <row r="46">
@@ -1303,35 +1303,35 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>250841.16</v>
+        <v>250125.02</v>
       </c>
       <c r="D46" t="n">
-        <v>64454.16</v>
+        <v>64308.15</v>
       </c>
       <c r="E46" t="n">
-        <v>315295.32</v>
+        <v>314433.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mar-16</t>
+          <t>Feb-16</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>252375.85</v>
+        <v>255326.04</v>
       </c>
       <c r="D47" t="n">
-        <v>63547.93</v>
+        <v>64273.99</v>
       </c>
       <c r="E47" t="n">
-        <v>315923.78</v>
+        <v>319600.03</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>245637.02</v>
+        <v>245537.47</v>
       </c>
       <c r="D48" t="n">
-        <v>58012.25</v>
+        <v>58017.83</v>
       </c>
       <c r="E48" t="n">
-        <v>303649.27</v>
+        <v>303555.3</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>251576.53</v>
+        <v>251489.11</v>
       </c>
       <c r="D49" t="n">
-        <v>55456.64</v>
+        <v>55404.49</v>
       </c>
       <c r="E49" t="n">
-        <v>307033.17</v>
+        <v>306893.6</v>
       </c>
     </row>
     <row r="50">
@@ -1379,35 +1379,35 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>250933.35</v>
+        <v>250565.8</v>
       </c>
       <c r="D50" t="n">
-        <v>62772.43</v>
+        <v>62697.15</v>
       </c>
       <c r="E50" t="n">
-        <v>313705.78</v>
+        <v>313262.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Apr-16</t>
+          <t>Mar-16</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>248790.41</v>
+        <v>251730.1</v>
       </c>
       <c r="D51" t="n">
-        <v>60506.41</v>
+        <v>61212.38</v>
       </c>
       <c r="E51" t="n">
-        <v>309296.82</v>
+        <v>312942.48</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>238496.13</v>
+        <v>238428.85</v>
       </c>
       <c r="D52" t="n">
-        <v>57194.35</v>
+        <v>57192.94</v>
       </c>
       <c r="E52" t="n">
-        <v>295690.48</v>
+        <v>295621.79</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>246695.09</v>
+        <v>246633.87</v>
       </c>
       <c r="D53" t="n">
-        <v>54800.27</v>
+        <v>54770</v>
       </c>
       <c r="E53" t="n">
-        <v>301495.36</v>
+        <v>301403.87</v>
       </c>
     </row>
     <row r="54">
@@ -1455,35 +1455,35 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>247257.96</v>
+        <v>247056.68</v>
       </c>
       <c r="D54" t="n">
-        <v>61986.68</v>
+        <v>61944.84</v>
       </c>
       <c r="E54" t="n">
-        <v>309244.64</v>
+        <v>309001.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>May-16</t>
+          <t>Apr-16</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>254740.37</v>
+        <v>257620.25</v>
       </c>
       <c r="D55" t="n">
-        <v>59857.86</v>
+        <v>60531.24</v>
       </c>
       <c r="E55" t="n">
-        <v>314598.23</v>
+        <v>318151.49</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>241737.96</v>
+        <v>241680.15</v>
       </c>
       <c r="D56" t="n">
-        <v>57481.17</v>
+        <v>57474.67</v>
       </c>
       <c r="E56" t="n">
-        <v>299219.13</v>
+        <v>299154.82</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>235340.55</v>
+        <v>235285.78</v>
       </c>
       <c r="D57" t="n">
-        <v>56422.85</v>
+        <v>56401.91</v>
       </c>
       <c r="E57" t="n">
-        <v>291763.4</v>
+        <v>291687.69</v>
       </c>
     </row>
     <row r="58">
@@ -1531,35 +1531,35 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>245167.15</v>
+        <v>245042.35</v>
       </c>
       <c r="D58" t="n">
-        <v>67221.24000000001</v>
+        <v>67194.52</v>
       </c>
       <c r="E58" t="n">
-        <v>312388.39</v>
+        <v>312236.87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jun-16</t>
+          <t>May-16</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>246717.55</v>
+        <v>249105.83</v>
       </c>
       <c r="D59" t="n">
-        <v>59658.61</v>
+        <v>60231.92</v>
       </c>
       <c r="E59" t="n">
-        <v>306376.16</v>
+        <v>309337.75</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>240970.46</v>
+        <v>240886.52</v>
       </c>
       <c r="D60" t="n">
-        <v>54250.57</v>
+        <v>54234.11</v>
       </c>
       <c r="E60" t="n">
-        <v>295221.03</v>
+        <v>295120.63</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>243404.48</v>
+        <v>243322.06</v>
       </c>
       <c r="D61" t="n">
-        <v>59233.75</v>
+        <v>59210.07</v>
       </c>
       <c r="E61" t="n">
-        <v>302638.23</v>
+        <v>302532.13</v>
       </c>
     </row>
     <row r="62">
@@ -1607,35 +1607,35 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>246634.99</v>
+        <v>246517.56</v>
       </c>
       <c r="D62" t="n">
-        <v>59864.8</v>
+        <v>59838.23</v>
       </c>
       <c r="E62" t="n">
-        <v>306499.79</v>
+        <v>306355.79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Jul-16</t>
+          <t>Jun-16</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>249643.45</v>
+        <v>251475.66</v>
       </c>
       <c r="D63" t="n">
-        <v>54533.13</v>
+        <v>54943.51</v>
       </c>
       <c r="E63" t="n">
-        <v>304176.58</v>
+        <v>306419.17</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>242887.25</v>
+        <v>242827.97</v>
       </c>
       <c r="D64" t="n">
-        <v>62085.55</v>
+        <v>62073.16</v>
       </c>
       <c r="E64" t="n">
-        <v>304972.8</v>
+        <v>304901.13</v>
       </c>
     </row>
     <row r="65">
@@ -1667,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>236598.21</v>
+        <v>236539.69</v>
       </c>
       <c r="D65" t="n">
-        <v>56706.3</v>
+        <v>56690.31</v>
       </c>
       <c r="E65" t="n">
-        <v>293304.51</v>
+        <v>293230</v>
       </c>
     </row>
     <row r="66">
@@ -1683,35 +1683,35 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>243401.14</v>
+        <v>243325.12</v>
       </c>
       <c r="D66" t="n">
-        <v>57201.19</v>
+        <v>57183.75</v>
       </c>
       <c r="E66" t="n">
-        <v>300602.33</v>
+        <v>300508.87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aug-16</t>
+          <t>Jul-16</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>236839.46</v>
+        <v>237951.11</v>
       </c>
       <c r="D67" t="n">
-        <v>56113.98</v>
+        <v>56369.62</v>
       </c>
       <c r="E67" t="n">
-        <v>292953.44</v>
+        <v>294320.73</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>235781.07</v>
+        <v>235712.77</v>
       </c>
       <c r="D68" t="n">
-        <v>61044.53</v>
+        <v>61029.05</v>
       </c>
       <c r="E68" t="n">
-        <v>296825.6</v>
+        <v>296741.82</v>
       </c>
     </row>
     <row r="69">
@@ -1743,13 +1743,13 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>233315.23</v>
+        <v>233247.3</v>
       </c>
       <c r="D69" t="n">
-        <v>61422.48</v>
+        <v>61405.2</v>
       </c>
       <c r="E69" t="n">
-        <v>294737.71</v>
+        <v>294652.5</v>
       </c>
     </row>
     <row r="70">
@@ -1759,35 +1759,35 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>237363.5</v>
+        <v>237286.83</v>
       </c>
       <c r="D70" t="n">
-        <v>56334.73</v>
+        <v>56316.73</v>
       </c>
       <c r="E70" t="n">
-        <v>293698.23</v>
+        <v>293603.56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sep-16</t>
+          <t>Aug-16</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>241834.48</v>
+        <v>242184.49</v>
       </c>
       <c r="D71" t="n">
-        <v>53233.2</v>
+        <v>53319.58</v>
       </c>
       <c r="E71" t="n">
-        <v>295067.68</v>
+        <v>295504.07</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>238516.52</v>
+        <v>238451.07</v>
       </c>
       <c r="D72" t="n">
-        <v>62944.77</v>
+        <v>62929.52</v>
       </c>
       <c r="E72" t="n">
-        <v>301461.29</v>
+        <v>301380.59</v>
       </c>
     </row>
     <row r="73">
@@ -1819,13 +1819,13 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>228551.98</v>
+        <v>228486.73</v>
       </c>
       <c r="D73" t="n">
-        <v>59928.86</v>
+        <v>59912.71</v>
       </c>
       <c r="E73" t="n">
-        <v>288480.84</v>
+        <v>288399.44</v>
       </c>
     </row>
     <row r="74">
@@ -1835,35 +1835,35 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>239462.02</v>
+        <v>239392.39</v>
       </c>
       <c r="D74" t="n">
-        <v>59090.02</v>
+        <v>59073.51</v>
       </c>
       <c r="E74" t="n">
-        <v>298552.04</v>
+        <v>298465.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Oct-16</t>
+          <t>Sep-16</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>235119.13</v>
+        <v>234718.51</v>
       </c>
       <c r="D75" t="n">
-        <v>51655.28</v>
+        <v>51572.7</v>
       </c>
       <c r="E75" t="n">
-        <v>286774.41</v>
+        <v>286291.21</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>241873.8</v>
+        <v>241847.66</v>
       </c>
       <c r="D76" t="n">
-        <v>61153.28</v>
+        <v>61147.24</v>
       </c>
       <c r="E76" t="n">
-        <v>303027.08</v>
+        <v>302994.9</v>
       </c>
     </row>
     <row r="77">
@@ -1895,13 +1895,13 @@
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>235593.06</v>
+        <v>235567.02</v>
       </c>
       <c r="D77" t="n">
-        <v>59787.29</v>
+        <v>59780.8</v>
       </c>
       <c r="E77" t="n">
-        <v>295380.35</v>
+        <v>295347.82</v>
       </c>
     </row>
     <row r="78">
@@ -1911,35 +1911,35 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>236596.95</v>
+        <v>236568.72</v>
       </c>
       <c r="D78" t="n">
-        <v>59040.12</v>
+        <v>59033.45</v>
       </c>
       <c r="E78" t="n">
-        <v>295637.07</v>
+        <v>295602.17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nov-16</t>
+          <t>Oct-16</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>240133.11</v>
+        <v>238886.59</v>
       </c>
       <c r="D79" t="n">
-        <v>52838.75</v>
+        <v>52566.19</v>
       </c>
       <c r="E79" t="n">
-        <v>292971.86</v>
+        <v>291452.78</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>251095.94</v>
+        <v>250987.1</v>
       </c>
       <c r="D80" t="n">
-        <v>61026.28</v>
+        <v>61000.28</v>
       </c>
       <c r="E80" t="n">
-        <v>312122.22</v>
+        <v>311987.38</v>
       </c>
     </row>
     <row r="81">
@@ -1971,13 +1971,13 @@
         <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>233210.6</v>
+        <v>233101.81</v>
       </c>
       <c r="D81" t="n">
-        <v>60872.07</v>
+        <v>60845.84</v>
       </c>
       <c r="E81" t="n">
-        <v>294082.67</v>
+        <v>293947.65</v>
       </c>
     </row>
     <row r="82">
@@ -1987,35 +1987,35 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>234757.36</v>
+        <v>234647.48</v>
       </c>
       <c r="D82" t="n">
-        <v>60876.23</v>
+        <v>60849.91</v>
       </c>
       <c r="E82" t="n">
-        <v>295633.59</v>
+        <v>295497.39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Dec-16</t>
+          <t>Nov-16</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>248146.92</v>
+        <v>246095.69</v>
       </c>
       <c r="D83" t="n">
-        <v>53402.61</v>
+        <v>52963.51</v>
       </c>
       <c r="E83" t="n">
-        <v>301549.53</v>
+        <v>299059.2</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>252676.64</v>
+        <v>252571.02</v>
       </c>
       <c r="D84" t="n">
-        <v>61104.26</v>
+        <v>61078.97</v>
       </c>
       <c r="E84" t="n">
-        <v>313780.9</v>
+        <v>313649.99</v>
       </c>
     </row>
     <row r="85">
@@ -2047,13 +2047,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>243045.06</v>
+        <v>242939.46</v>
       </c>
       <c r="D85" t="n">
-        <v>65367.89</v>
+        <v>65342.48</v>
       </c>
       <c r="E85" t="n">
-        <v>308412.95</v>
+        <v>308281.94</v>
       </c>
     </row>
     <row r="86">
@@ -2063,35 +2063,35 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>238614.63</v>
+        <v>238508.49</v>
       </c>
       <c r="D86" t="n">
-        <v>57617.17</v>
+        <v>57591.72</v>
       </c>
       <c r="E86" t="n">
-        <v>296231.8</v>
+        <v>296100.21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jan-17</t>
+          <t>Dec-16</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>243685.92</v>
+        <v>241092.48</v>
       </c>
       <c r="D87" t="n">
-        <v>54046.14</v>
+        <v>53466.95</v>
       </c>
       <c r="E87" t="n">
-        <v>297732.06</v>
+        <v>294559.43</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>249960.28</v>
+        <v>249846.02</v>
       </c>
       <c r="D88" t="n">
-        <v>61322.94</v>
+        <v>61295.54</v>
       </c>
       <c r="E88" t="n">
-        <v>311283.22</v>
+        <v>311141.56</v>
       </c>
     </row>
     <row r="89">
@@ -2123,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>246890.56</v>
+        <v>246776.31</v>
       </c>
       <c r="D89" t="n">
-        <v>64893.98</v>
+        <v>64866.52</v>
       </c>
       <c r="E89" t="n">
-        <v>311784.54</v>
+        <v>311642.83</v>
       </c>
     </row>
     <row r="90">
@@ -2139,35 +2139,35 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>243373.96</v>
+        <v>243259.44</v>
       </c>
       <c r="D90" t="n">
-        <v>62873.35</v>
+        <v>62845.88</v>
       </c>
       <c r="E90" t="n">
-        <v>306247.31</v>
+        <v>306105.32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Feb-17</t>
+          <t>Jan-17</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>246199.48</v>
+        <v>243181.11</v>
       </c>
       <c r="D91" t="n">
-        <v>65346.73</v>
+        <v>64534.22</v>
       </c>
       <c r="E91" t="n">
-        <v>311546.21</v>
+        <v>307715.33</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>253788.28</v>
+        <v>253663.63</v>
       </c>
       <c r="D92" t="n">
-        <v>58253.15</v>
+        <v>58223.25</v>
       </c>
       <c r="E92" t="n">
-        <v>312041.43</v>
+        <v>311886.88</v>
       </c>
     </row>
     <row r="93">
@@ -2199,13 +2199,13 @@
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>243770.63</v>
+        <v>243645.98</v>
       </c>
       <c r="D93" t="n">
-        <v>64057.56</v>
+        <v>64027.63</v>
       </c>
       <c r="E93" t="n">
-        <v>307828.19</v>
+        <v>307673.61</v>
       </c>
     </row>
     <row r="94">
@@ -2215,35 +2215,35 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>246249.47</v>
+        <v>246124.69</v>
       </c>
       <c r="D94" t="n">
-        <v>63741.83</v>
+        <v>63711.89</v>
       </c>
       <c r="E94" t="n">
-        <v>309991.3</v>
+        <v>309836.58</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mar-17</t>
+          <t>Feb-17</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>252758.82</v>
+        <v>249569.03</v>
       </c>
       <c r="D95" t="n">
-        <v>62995</v>
+        <v>62195.57</v>
       </c>
       <c r="E95" t="n">
-        <v>315753.82</v>
+        <v>311764.6</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>249867.65</v>
+        <v>249814.12</v>
       </c>
       <c r="D96" t="n">
-        <v>55066.17</v>
+        <v>55053.33</v>
       </c>
       <c r="E96" t="n">
-        <v>304933.82</v>
+        <v>304867.45</v>
       </c>
     </row>
     <row r="97">
@@ -2275,13 +2275,13 @@
         <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>246886.12</v>
+        <v>246832.59</v>
       </c>
       <c r="D97" t="n">
-        <v>65174.17</v>
+        <v>65161.32</v>
       </c>
       <c r="E97" t="n">
-        <v>312060.29</v>
+        <v>311993.91</v>
       </c>
     </row>
     <row r="98">
@@ -2291,35 +2291,35 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>251471.32</v>
+        <v>251417.73</v>
       </c>
       <c r="D98" t="n">
-        <v>58628.28</v>
+        <v>58615.42</v>
       </c>
       <c r="E98" t="n">
-        <v>310099.6</v>
+        <v>310033.15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Apr-17</t>
+          <t>Mar-17</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>255980.3</v>
+        <v>294623.89</v>
       </c>
       <c r="D99" t="n">
-        <v>63573.55</v>
+        <v>73167.42</v>
       </c>
       <c r="E99" t="n">
-        <v>319553.85</v>
+        <v>367791.31</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>249117.39</v>
+        <v>249101.95</v>
       </c>
       <c r="D100" t="n">
-        <v>58896.99</v>
+        <v>58893.29</v>
       </c>
       <c r="E100" t="n">
-        <v>308014.38</v>
+        <v>307995.24</v>
       </c>
     </row>
     <row r="101">
@@ -2351,13 +2351,13 @@
         <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>252454.71</v>
+        <v>252439.27</v>
       </c>
       <c r="D101" t="n">
-        <v>59963.65</v>
+        <v>59959.94</v>
       </c>
       <c r="E101" t="n">
-        <v>312418.36</v>
+        <v>312399.21</v>
       </c>
     </row>
     <row r="102">
@@ -2367,35 +2367,35 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>256282.65</v>
+        <v>256267.18</v>
       </c>
       <c r="D102" t="n">
-        <v>61929.75</v>
+        <v>61926.04</v>
       </c>
       <c r="E102" t="n">
-        <v>318212.4</v>
+        <v>318193.22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>May-17</t>
+          <t>Apr-17</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>263653.48</v>
+        <v>281587.24</v>
       </c>
       <c r="D103" t="n">
-        <v>66273.53999999999</v>
+        <v>70718.07000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>329927.02</v>
+        <v>352305.31</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>247483.43</v>
+        <v>247387.01</v>
       </c>
       <c r="D104" t="n">
-        <v>57749.14</v>
+        <v>57726</v>
       </c>
       <c r="E104" t="n">
-        <v>305232.57</v>
+        <v>305113.01</v>
       </c>
     </row>
     <row r="105">
@@ -2427,13 +2427,13 @@
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>258950.2</v>
+        <v>258853.78</v>
       </c>
       <c r="D105" t="n">
-        <v>62791.27</v>
+        <v>62768.12</v>
       </c>
       <c r="E105" t="n">
-        <v>321741.47</v>
+        <v>321621.9</v>
       </c>
     </row>
     <row r="106">
@@ -2443,35 +2443,35 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>260864.23</v>
+        <v>260767.8</v>
       </c>
       <c r="D106" t="n">
-        <v>74145.3</v>
+        <v>74122.16</v>
       </c>
       <c r="E106" t="n">
-        <v>335009.53</v>
+        <v>334889.96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Jun-17</t>
+          <t>May-17</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>265805.51</v>
+        <v>273716.91</v>
       </c>
       <c r="D107" t="n">
-        <v>68131.14999999999</v>
+        <v>70078.48</v>
       </c>
       <c r="E107" t="n">
-        <v>333936.66</v>
+        <v>343795.39</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>259718.99</v>
+        <v>259579.25</v>
       </c>
       <c r="D108" t="n">
-        <v>62353.53</v>
+        <v>62320</v>
       </c>
       <c r="E108" t="n">
-        <v>322072.52</v>
+        <v>321899.25</v>
       </c>
     </row>
     <row r="109">
@@ -2503,13 +2503,13 @@
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>258831.21</v>
+        <v>258691.48</v>
       </c>
       <c r="D109" t="n">
-        <v>65211.31</v>
+        <v>65177.77</v>
       </c>
       <c r="E109" t="n">
-        <v>324042.52</v>
+        <v>323869.25</v>
       </c>
     </row>
     <row r="110">
@@ -2519,35 +2519,35 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>257401.38</v>
+        <v>257261.65</v>
       </c>
       <c r="D110" t="n">
-        <v>67771.60000000001</v>
+        <v>67738.07000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>325172.98</v>
+        <v>324999.72</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Jul-17</t>
+          <t>Jun-17</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>261937.94</v>
+        <v>265235.75</v>
       </c>
       <c r="D111" t="n">
-        <v>65902.07000000001</v>
+        <v>66713.7</v>
       </c>
       <c r="E111" t="n">
-        <v>327840.01</v>
+        <v>331949.45</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v>273570.95</v>
+        <v>273464.34</v>
       </c>
       <c r="D112" t="n">
-        <v>56883.43</v>
+        <v>56857.85</v>
       </c>
       <c r="E112" t="n">
-        <v>330454.38</v>
+        <v>330322.19</v>
       </c>
     </row>
     <row r="113">
@@ -2579,13 +2579,13 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>264591.84</v>
+        <v>264485.23</v>
       </c>
       <c r="D113" t="n">
-        <v>59112.85</v>
+        <v>59087.27</v>
       </c>
       <c r="E113" t="n">
-        <v>323704.69</v>
+        <v>323572.5</v>
       </c>
     </row>
     <row r="114">
@@ -2595,35 +2595,35 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>257806.28</v>
+        <v>257699.68</v>
       </c>
       <c r="D114" t="n">
-        <v>68889.44</v>
+        <v>68863.86</v>
       </c>
       <c r="E114" t="n">
-        <v>326695.72</v>
+        <v>326563.54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Aug-17</t>
+          <t>Jul-17</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>263089.41</v>
+        <v>264497.27</v>
       </c>
       <c r="D115" t="n">
-        <v>61184.05</v>
+        <v>61537.66</v>
       </c>
       <c r="E115" t="n">
-        <v>324273.46</v>
+        <v>326034.9300000001</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116" t="n">
-        <v>264813.1</v>
+        <v>264738.24</v>
       </c>
       <c r="D116" t="n">
-        <v>62210.36</v>
+        <v>62192.4</v>
       </c>
       <c r="E116" t="n">
-        <v>327023.46</v>
+        <v>326930.64</v>
       </c>
     </row>
     <row r="117">
@@ -2655,13 +2655,13 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>260244.46</v>
+        <v>260169.61</v>
       </c>
       <c r="D117" t="n">
-        <v>61866.18</v>
+        <v>61848.22</v>
       </c>
       <c r="E117" t="n">
-        <v>322110.64</v>
+        <v>322017.83</v>
       </c>
     </row>
     <row r="118">
@@ -2671,35 +2671,35 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>260925.36</v>
+        <v>260850.51</v>
       </c>
       <c r="D118" t="n">
-        <v>64020.09</v>
+        <v>64002.13</v>
       </c>
       <c r="E118" t="n">
-        <v>324945.45</v>
+        <v>324852.64</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sep-17</t>
+          <t>Aug-17</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>274326.62</v>
+        <v>275265.76</v>
       </c>
       <c r="D119" t="n">
-        <v>64156.3</v>
+        <v>64388.41</v>
       </c>
       <c r="E119" t="n">
-        <v>338482.92</v>
+        <v>339654.17</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>253336.27</v>
+        <v>253321.64</v>
       </c>
       <c r="D120" t="n">
-        <v>63262.23</v>
+        <v>63258.72</v>
       </c>
       <c r="E120" t="n">
-        <v>316598.5</v>
+        <v>316580.36</v>
       </c>
     </row>
     <row r="121">
@@ -2731,13 +2731,13 @@
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>258197.96</v>
+        <v>258183.33</v>
       </c>
       <c r="D121" t="n">
-        <v>65184.57</v>
+        <v>65181.06</v>
       </c>
       <c r="E121" t="n">
-        <v>323382.53</v>
+        <v>323364.39</v>
       </c>
     </row>
     <row r="122">
@@ -2747,35 +2747,35 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>257853.17</v>
+        <v>257838.54</v>
       </c>
       <c r="D122" t="n">
-        <v>63219.88</v>
+        <v>63216.37</v>
       </c>
       <c r="E122" t="n">
-        <v>321073.05</v>
+        <v>321054.91</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Oct-17</t>
+          <t>Sep-17</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>270665.83</v>
+        <v>271847.02</v>
       </c>
       <c r="D123" t="n">
-        <v>66196.25999999999</v>
+        <v>66493.05</v>
       </c>
       <c r="E123" t="n">
-        <v>336862.09</v>
+        <v>338340.07</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
-        <v>251275.03</v>
+        <v>251318.71</v>
       </c>
       <c r="D124" t="n">
-        <v>61992.54</v>
+        <v>62003.02</v>
       </c>
       <c r="E124" t="n">
-        <v>313267.57</v>
+        <v>313321.73</v>
       </c>
     </row>
     <row r="125">
@@ -2807,13 +2807,13 @@
         <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>257489.67</v>
+        <v>257533.35</v>
       </c>
       <c r="D125" t="n">
-        <v>61955.81</v>
+        <v>61966.29</v>
       </c>
       <c r="E125" t="n">
-        <v>319445.48</v>
+        <v>319499.64</v>
       </c>
     </row>
     <row r="126">
@@ -2823,35 +2823,35 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>269004.34</v>
+        <v>269048.02</v>
       </c>
       <c r="D126" t="n">
-        <v>64285.87</v>
+        <v>64296.36</v>
       </c>
       <c r="E126" t="n">
-        <v>333290.21</v>
+        <v>333344.38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nov-17</t>
+          <t>Oct-17</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>258640.93</v>
+        <v>260265.34</v>
       </c>
       <c r="D127" t="n">
-        <v>67109.55</v>
+        <v>67539.96000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>325750.48</v>
+        <v>327805.3</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C128" t="n">
-        <v>266458.77</v>
+        <v>266584.39</v>
       </c>
       <c r="D128" t="n">
-        <v>65363.65</v>
+        <v>65393.8</v>
       </c>
       <c r="E128" t="n">
-        <v>331822.42</v>
+        <v>331978.19</v>
       </c>
     </row>
     <row r="129">
@@ -2883,13 +2883,13 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>250714.72</v>
+        <v>250840.35</v>
       </c>
       <c r="D129" t="n">
-        <v>60634.32</v>
+        <v>60664.47</v>
       </c>
       <c r="E129" t="n">
-        <v>311349.04</v>
+        <v>311504.82</v>
       </c>
     </row>
     <row r="130">
@@ -2899,35 +2899,35 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>270896.01</v>
+        <v>271021.64</v>
       </c>
       <c r="D130" t="n">
-        <v>61105.35</v>
+        <v>61135.5</v>
       </c>
       <c r="E130" t="n">
-        <v>332001.36</v>
+        <v>332157.14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Dec-17</t>
+          <t>Nov-17</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>260177.87</v>
+        <v>262369.33</v>
       </c>
       <c r="D131" t="n">
-        <v>66796.64999999999</v>
+        <v>67361.42999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>326974.52</v>
+        <v>329730.76</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C132" t="n">
-        <v>257061.69</v>
+        <v>257147.6</v>
       </c>
       <c r="D132" t="n">
-        <v>63358.66</v>
+        <v>63379.28</v>
       </c>
       <c r="E132" t="n">
-        <v>320420.35</v>
+        <v>320526.88</v>
       </c>
     </row>
     <row r="133">
@@ -2959,13 +2959,13 @@
         <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>237328.69</v>
+        <v>237414.61</v>
       </c>
       <c r="D133" t="n">
-        <v>58027.05</v>
+        <v>58047.67</v>
       </c>
       <c r="E133" t="n">
-        <v>295355.74</v>
+        <v>295462.28</v>
       </c>
     </row>
     <row r="134">
@@ -2975,35 +2975,35 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>262736.42</v>
+        <v>262822.34</v>
       </c>
       <c r="D134" t="n">
-        <v>57575.62</v>
+        <v>57596.24</v>
       </c>
       <c r="E134" t="n">
-        <v>320312.04</v>
+        <v>320418.58</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Jan-18</t>
+          <t>Dec-17</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>265380.12</v>
+        <v>268156.7</v>
       </c>
       <c r="D135" t="n">
-        <v>59538.02</v>
+        <v>60148.45</v>
       </c>
       <c r="E135" t="n">
-        <v>324918.14</v>
+        <v>328305.15</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
-        <v>253325.66</v>
+        <v>253446.99</v>
       </c>
       <c r="D136" t="n">
-        <v>62562.27</v>
+        <v>62591.39</v>
       </c>
       <c r="E136" t="n">
-        <v>315887.93</v>
+        <v>316038.38</v>
       </c>
     </row>
     <row r="137">
@@ -3035,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>252987.47</v>
+        <v>253108.81</v>
       </c>
       <c r="D137" t="n">
-        <v>55135.84</v>
+        <v>55164.96</v>
       </c>
       <c r="E137" t="n">
-        <v>308123.31</v>
+        <v>308273.77</v>
       </c>
     </row>
     <row r="138">
@@ -3051,35 +3051,35 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>264282.8</v>
+        <v>264404.13</v>
       </c>
       <c r="D138" t="n">
-        <v>59304.55</v>
+        <v>59333.67</v>
       </c>
       <c r="E138" t="n">
-        <v>323587.35</v>
+        <v>323737.8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Feb-18</t>
+          <t>Jan-18</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>253221.65</v>
+        <v>256209.18</v>
       </c>
       <c r="D139" t="n">
-        <v>61260.71</v>
+        <v>61982.93</v>
       </c>
       <c r="E139" t="n">
-        <v>314482.36</v>
+        <v>318192.11</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>253097.27</v>
+        <v>253146.49</v>
       </c>
       <c r="D140" t="n">
-        <v>59585.88</v>
+        <v>59597.69</v>
       </c>
       <c r="E140" t="n">
-        <v>312683.15</v>
+        <v>312744.18</v>
       </c>
     </row>
     <row r="141">
@@ -3111,13 +3111,13 @@
         <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>252281.88</v>
+        <v>252331.11</v>
       </c>
       <c r="D141" t="n">
-        <v>56517.37</v>
+        <v>56529.19</v>
       </c>
       <c r="E141" t="n">
-        <v>308799.25</v>
+        <v>308860.3</v>
       </c>
     </row>
     <row r="142">
@@ -3127,35 +3127,35 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>258148.12</v>
+        <v>258197.35</v>
       </c>
       <c r="D142" t="n">
-        <v>61744.06</v>
+        <v>61755.87</v>
       </c>
       <c r="E142" t="n">
-        <v>319892.18</v>
+        <v>319953.22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mar-18</t>
+          <t>Feb-18</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>258250.05</v>
+        <v>261462.37</v>
       </c>
       <c r="D143" t="n">
-        <v>56679.79</v>
+        <v>57380.67</v>
       </c>
       <c r="E143" t="n">
-        <v>314929.84</v>
+        <v>318843.04</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C144" t="n">
-        <v>260887.55</v>
+        <v>260926.32</v>
       </c>
       <c r="D144" t="n">
-        <v>53727.29</v>
+        <v>53736.59</v>
       </c>
       <c r="E144" t="n">
-        <v>314614.84</v>
+        <v>314662.91</v>
       </c>
     </row>
     <row r="145">
@@ -3187,13 +3187,13 @@
         <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>249203.6</v>
+        <v>249242.38</v>
       </c>
       <c r="D145" t="n">
-        <v>59715.62</v>
+        <v>59724.93</v>
       </c>
       <c r="E145" t="n">
-        <v>308919.22</v>
+        <v>308967.31</v>
       </c>
     </row>
     <row r="146">
@@ -3203,35 +3203,35 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>254272.61</v>
+        <v>254311.38</v>
       </c>
       <c r="D146" t="n">
-        <v>58742.93</v>
+        <v>58752.23</v>
       </c>
       <c r="E146" t="n">
-        <v>313015.54</v>
+        <v>313063.61</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Apr-18</t>
+          <t>Mar-18</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>250397.7</v>
+        <v>253529.97</v>
       </c>
       <c r="D147" t="n">
-        <v>56246.81</v>
+        <v>56948.7</v>
       </c>
       <c r="E147" t="n">
-        <v>306644.51</v>
+        <v>310478.67</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C148" t="n">
-        <v>249857.89</v>
+        <v>249947.22</v>
       </c>
       <c r="D148" t="n">
-        <v>58697.68</v>
+        <v>58719.11</v>
       </c>
       <c r="E148" t="n">
-        <v>308555.57</v>
+        <v>308666.33</v>
       </c>
     </row>
     <row r="149">
@@ -3263,13 +3263,13 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>248629.52</v>
+        <v>248718.85</v>
       </c>
       <c r="D149" t="n">
-        <v>57179.99</v>
+        <v>57201.43</v>
       </c>
       <c r="E149" t="n">
-        <v>305809.51</v>
+        <v>305920.28</v>
       </c>
     </row>
     <row r="150">
@@ -3279,35 +3279,35 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>253809.13</v>
+        <v>253898.45</v>
       </c>
       <c r="D150" t="n">
-        <v>59619.26</v>
+        <v>59640.7</v>
       </c>
       <c r="E150" t="n">
-        <v>313428.39</v>
+        <v>313539.15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>May-18</t>
+          <t>Apr-18</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>250101.75</v>
+        <v>253084.9</v>
       </c>
       <c r="D151" t="n">
-        <v>58981.26</v>
+        <v>59681.74</v>
       </c>
       <c r="E151" t="n">
-        <v>309083.01</v>
+        <v>312766.64</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
-        <v>241912.8</v>
+        <v>242006.15</v>
       </c>
       <c r="D152" t="n">
-        <v>56763.46</v>
+        <v>56785.86</v>
       </c>
       <c r="E152" t="n">
-        <v>298676.26</v>
+        <v>298792.01</v>
       </c>
     </row>
     <row r="153">
@@ -3339,13 +3339,13 @@
         <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>248901.4</v>
+        <v>248994.76</v>
       </c>
       <c r="D153" t="n">
-        <v>59392.11</v>
+        <v>59414.52</v>
       </c>
       <c r="E153" t="n">
-        <v>308293.51</v>
+        <v>308409.28</v>
       </c>
     </row>
     <row r="154">
@@ -3355,35 +3355,35 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>247786.03</v>
+        <v>247879.38</v>
       </c>
       <c r="D154" t="n">
-        <v>59184.92</v>
+        <v>59207.32</v>
       </c>
       <c r="E154" t="n">
-        <v>306970.95</v>
+        <v>307086.7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Jun-18</t>
+          <t>May-18</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>251141.51</v>
+        <v>253735.88</v>
       </c>
       <c r="D155" t="n">
-        <v>56587.71</v>
+        <v>57176.33</v>
       </c>
       <c r="E155" t="n">
-        <v>307729.22</v>
+        <v>310912.21</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C156" t="n">
-        <v>243552.37</v>
+        <v>243660.15</v>
       </c>
       <c r="D156" t="n">
-        <v>56596.36</v>
+        <v>56622.23</v>
       </c>
       <c r="E156" t="n">
-        <v>300148.73</v>
+        <v>300282.38</v>
       </c>
     </row>
     <row r="157">
@@ -3415,13 +3415,13 @@
         <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>243388.35</v>
+        <v>243496.14</v>
       </c>
       <c r="D157" t="n">
-        <v>61644.59</v>
+        <v>61670.46</v>
       </c>
       <c r="E157" t="n">
-        <v>305032.94</v>
+        <v>305166.6</v>
       </c>
     </row>
     <row r="158">
@@ -3431,35 +3431,35 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>247820.32</v>
+        <v>247928.1</v>
       </c>
       <c r="D158" t="n">
-        <v>60722.25</v>
+        <v>60748.12</v>
       </c>
       <c r="E158" t="n">
-        <v>308542.57</v>
+        <v>308676.22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Jul-18</t>
+          <t>Jun-18</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>251175.38</v>
+        <v>253152.72</v>
       </c>
       <c r="D159" t="n">
-        <v>57008.02</v>
+        <v>57458.06</v>
       </c>
       <c r="E159" t="n">
-        <v>308183.4</v>
+        <v>310610.78</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C160" t="n">
-        <v>244413.75</v>
+        <v>244539.18</v>
       </c>
       <c r="D160" t="n">
-        <v>56066.53</v>
+        <v>56096.63</v>
       </c>
       <c r="E160" t="n">
-        <v>300480.28</v>
+        <v>300635.81</v>
       </c>
     </row>
     <row r="161">
@@ -3491,13 +3491,13 @@
         <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>242629.21</v>
+        <v>242754.64</v>
       </c>
       <c r="D161" t="n">
-        <v>59104.92</v>
+        <v>59135.02</v>
       </c>
       <c r="E161" t="n">
-        <v>301734.13</v>
+        <v>301889.66</v>
       </c>
     </row>
     <row r="162">
@@ -3507,35 +3507,35 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>243764.2</v>
+        <v>243889.62</v>
       </c>
       <c r="D162" t="n">
-        <v>60714.56</v>
+        <v>60744.66</v>
       </c>
       <c r="E162" t="n">
-        <v>304478.76</v>
+        <v>304634.28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Aug-18</t>
+          <t>Jul-18</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>240878.19</v>
+        <v>242146.86</v>
       </c>
       <c r="D163" t="n">
-        <v>63069.8</v>
+        <v>63374.39</v>
       </c>
       <c r="E163" t="n">
-        <v>303947.99</v>
+        <v>305521.25</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164" t="n">
-        <v>236605.34</v>
+        <v>236729.41</v>
       </c>
       <c r="D164" t="n">
-        <v>53175.32</v>
+        <v>53205.09</v>
       </c>
       <c r="E164" t="n">
-        <v>289780.66</v>
+        <v>289934.5</v>
       </c>
     </row>
     <row r="165">
@@ -3567,13 +3567,13 @@
         <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>245992.68</v>
+        <v>246116.75</v>
       </c>
       <c r="D165" t="n">
-        <v>60411.19</v>
+        <v>60440.97</v>
       </c>
       <c r="E165" t="n">
-        <v>306403.87</v>
+        <v>306557.72</v>
       </c>
     </row>
     <row r="166">
@@ -3583,35 +3583,35 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>244023.71</v>
+        <v>244147.78</v>
       </c>
       <c r="D166" t="n">
-        <v>60750.56</v>
+        <v>60780.33</v>
       </c>
       <c r="E166" t="n">
-        <v>304774.27</v>
+        <v>304928.11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sep-18</t>
+          <t>Aug-18</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>239829.33</v>
+        <v>240253.66</v>
       </c>
       <c r="D167" t="n">
-        <v>57640.78</v>
+        <v>57747.24</v>
       </c>
       <c r="E167" t="n">
-        <v>297470.11</v>
+        <v>298000.9</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C168" t="n">
-        <v>238111.9</v>
+        <v>238211.46</v>
       </c>
       <c r="D168" t="n">
-        <v>53321.93</v>
+        <v>53345.82</v>
       </c>
       <c r="E168" t="n">
-        <v>291433.83</v>
+        <v>291557.28</v>
       </c>
     </row>
     <row r="169">
@@ -3643,13 +3643,13 @@
         <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>247084.97</v>
+        <v>247184.54</v>
       </c>
       <c r="D169" t="n">
-        <v>58453.37</v>
+        <v>58477.27</v>
       </c>
       <c r="E169" t="n">
-        <v>305538.34</v>
+        <v>305661.81</v>
       </c>
     </row>
     <row r="170">
@@ -3659,35 +3659,35 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>237532.22</v>
+        <v>237631.78</v>
       </c>
       <c r="D170" t="n">
-        <v>58125.33</v>
+        <v>58149.22</v>
       </c>
       <c r="E170" t="n">
-        <v>295657.55</v>
+        <v>295781</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Oct-18</t>
+          <t>Sep-18</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>242020.04</v>
+        <v>241577.81</v>
       </c>
       <c r="D171" t="n">
-        <v>56033.68</v>
+        <v>55940.77</v>
       </c>
       <c r="E171" t="n">
-        <v>298053.72</v>
+        <v>297518.58</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C172" t="n">
-        <v>235252.99</v>
+        <v>235292.47</v>
       </c>
       <c r="D172" t="n">
-        <v>56191.6</v>
+        <v>56201.07</v>
       </c>
       <c r="E172" t="n">
-        <v>291444.59</v>
+        <v>291493.54</v>
       </c>
     </row>
     <row r="173">
@@ -3719,13 +3719,13 @@
         <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>244844.4</v>
+        <v>244883.89</v>
       </c>
       <c r="D173" t="n">
-        <v>56602.94</v>
+        <v>56612.42</v>
       </c>
       <c r="E173" t="n">
-        <v>301447.34</v>
+        <v>301496.31</v>
       </c>
     </row>
     <row r="174">
@@ -3735,35 +3735,35 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>236643.02</v>
+        <v>236682.51</v>
       </c>
       <c r="D174" t="n">
-        <v>58559.9</v>
+        <v>58569.37</v>
       </c>
       <c r="E174" t="n">
-        <v>295202.92</v>
+        <v>295251.88</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Nov-18</t>
+          <t>Oct-18</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>235128.95</v>
+        <v>233981.83</v>
       </c>
       <c r="D175" t="n">
-        <v>53008.54</v>
+        <v>52759.59</v>
       </c>
       <c r="E175" t="n">
-        <v>288137.49</v>
+        <v>286741.42</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C176" t="n">
-        <v>235264.64</v>
+        <v>235308.06</v>
       </c>
       <c r="D176" t="n">
-        <v>56542.9</v>
+        <v>56553.32</v>
       </c>
       <c r="E176" t="n">
-        <v>291807.54</v>
+        <v>291861.38</v>
       </c>
     </row>
     <row r="177">
@@ -3795,13 +3795,13 @@
         <v>3</v>
       </c>
       <c r="C177" t="n">
-        <v>245025.14</v>
+        <v>245068.56</v>
       </c>
       <c r="D177" t="n">
-        <v>61635.86</v>
+        <v>61646.28</v>
       </c>
       <c r="E177" t="n">
-        <v>306661</v>
+        <v>306714.84</v>
       </c>
     </row>
     <row r="178">
@@ -3811,35 +3811,35 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>243561.55</v>
+        <v>243604.98</v>
       </c>
       <c r="D178" t="n">
-        <v>57881.9</v>
+        <v>57892.32</v>
       </c>
       <c r="E178" t="n">
-        <v>301443.45</v>
+        <v>301497.3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Dec-18</t>
+          <t>Nov-18</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>239821.19</v>
+        <v>238026.24</v>
       </c>
       <c r="D179" t="n">
-        <v>52935.73</v>
+        <v>52549.03</v>
       </c>
       <c r="E179" t="n">
-        <v>292756.92</v>
+        <v>290575.27</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C180" t="n">
-        <v>239891.49</v>
+        <v>239991.45</v>
       </c>
       <c r="D180" t="n">
-        <v>56790.98</v>
+        <v>56814.97</v>
       </c>
       <c r="E180" t="n">
-        <v>296682.47</v>
+        <v>296806.42</v>
       </c>
     </row>
     <row r="181">
@@ -3871,13 +3871,13 @@
         <v>3</v>
       </c>
       <c r="C181" t="n">
-        <v>246435.24</v>
+        <v>246535.2</v>
       </c>
       <c r="D181" t="n">
-        <v>57762.14</v>
+        <v>57786.13</v>
       </c>
       <c r="E181" t="n">
-        <v>304197.38</v>
+        <v>304321.33</v>
       </c>
     </row>
     <row r="182">
@@ -3887,35 +3887,35 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>246662.01</v>
+        <v>246761.98</v>
       </c>
       <c r="D182" t="n">
-        <v>62788.07</v>
+        <v>62812.06</v>
       </c>
       <c r="E182" t="n">
-        <v>309450.08</v>
+        <v>309574.04</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Jan-19</t>
+          <t>Dec-18</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>243293.35</v>
+        <v>240910.59</v>
       </c>
       <c r="D183" t="n">
-        <v>57398.09</v>
+        <v>56832.16</v>
       </c>
       <c r="E183" t="n">
-        <v>300691.44</v>
+        <v>297742.75</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v>247271.33</v>
+        <v>247304.91</v>
       </c>
       <c r="D184" t="n">
-        <v>56948.09</v>
+        <v>56956.15</v>
       </c>
       <c r="E184" t="n">
-        <v>304219.42</v>
+        <v>304261.06</v>
       </c>
     </row>
     <row r="185">
@@ -3947,13 +3947,13 @@
         <v>3</v>
       </c>
       <c r="C185" t="n">
-        <v>248243.1</v>
+        <v>248276.69</v>
       </c>
       <c r="D185" t="n">
-        <v>58659.04</v>
+        <v>58667.1</v>
       </c>
       <c r="E185" t="n">
-        <v>306902.14</v>
+        <v>306943.79</v>
       </c>
     </row>
     <row r="186">
@@ -3963,35 +3963,35 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>247732.58</v>
+        <v>247766.17</v>
       </c>
       <c r="D186" t="n">
-        <v>58845.7</v>
+        <v>58853.76</v>
       </c>
       <c r="E186" t="n">
-        <v>306578.28</v>
+        <v>306619.93</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Feb-19</t>
+          <t>Jan-19</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C187" t="n">
-        <v>247280.31</v>
+        <v>244479.38</v>
       </c>
       <c r="D187" t="n">
-        <v>60315.7</v>
+        <v>59627.49</v>
       </c>
       <c r="E187" t="n">
-        <v>307596.01</v>
+        <v>304106.87</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C188" t="n">
-        <v>256402.46</v>
+        <v>256484.53</v>
       </c>
       <c r="D188" t="n">
-        <v>61474.52</v>
+        <v>61494.21</v>
       </c>
       <c r="E188" t="n">
-        <v>317876.98</v>
+        <v>317978.74</v>
       </c>
     </row>
     <row r="189">
@@ -4023,13 +4023,13 @@
         <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>260398.54</v>
+        <v>260480.61</v>
       </c>
       <c r="D189" t="n">
-        <v>57150.14</v>
+        <v>57169.83</v>
       </c>
       <c r="E189" t="n">
-        <v>317548.68</v>
+        <v>317650.44</v>
       </c>
     </row>
     <row r="190">
@@ -4039,35 +4039,35 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>253738.97</v>
+        <v>253821.04</v>
       </c>
       <c r="D190" t="n">
-        <v>60095.54</v>
+        <v>60115.23</v>
       </c>
       <c r="E190" t="n">
-        <v>313834.51</v>
+        <v>313936.27</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Mar-19</t>
+          <t>Feb-19</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>261881.29</v>
+        <v>258765.06</v>
       </c>
       <c r="D191" t="n">
-        <v>58217.68</v>
+        <v>57527.18</v>
       </c>
       <c r="E191" t="n">
-        <v>320098.97</v>
+        <v>316292.24</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
-        <v>251098.72</v>
+        <v>251201.35</v>
       </c>
       <c r="D192" t="n">
-        <v>59431.91</v>
+        <v>59456.54</v>
       </c>
       <c r="E192" t="n">
-        <v>310530.63</v>
+        <v>310657.89</v>
       </c>
     </row>
     <row r="193">
@@ -4099,13 +4099,13 @@
         <v>3</v>
       </c>
       <c r="C193" t="n">
-        <v>246592.79</v>
+        <v>246695.43</v>
       </c>
       <c r="D193" t="n">
-        <v>57493.5</v>
+        <v>57518.13</v>
       </c>
       <c r="E193" t="n">
-        <v>304086.29</v>
+        <v>304213.56</v>
       </c>
     </row>
     <row r="194">
@@ -4115,35 +4115,35 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>250175.13</v>
+        <v>250277.77</v>
       </c>
       <c r="D194" t="n">
-        <v>61020.89</v>
+        <v>61045.52</v>
       </c>
       <c r="E194" t="n">
-        <v>311196.02</v>
+        <v>311323.29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Apr-19</t>
+          <t>Mar-19</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>261318.41</v>
+        <v>258325.45</v>
       </c>
       <c r="D195" t="n">
-        <v>65748.37</v>
+        <v>64995.83</v>
       </c>
       <c r="E195" t="n">
-        <v>327066.78</v>
+        <v>323321.28</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C196" t="n">
-        <v>259046.54</v>
+        <v>259164.6</v>
       </c>
       <c r="D196" t="n">
-        <v>58812.28</v>
+        <v>58840.61</v>
       </c>
       <c r="E196" t="n">
-        <v>317858.82</v>
+        <v>318005.21</v>
       </c>
     </row>
     <row r="197">
@@ -4175,13 +4175,13 @@
         <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>247318.28</v>
+        <v>247436.34</v>
       </c>
       <c r="D197" t="n">
-        <v>61129.7</v>
+        <v>61158.04</v>
       </c>
       <c r="E197" t="n">
-        <v>308447.98</v>
+        <v>308594.38</v>
       </c>
     </row>
     <row r="198">
@@ -4191,35 +4191,35 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>246947.63</v>
+        <v>247065.69</v>
       </c>
       <c r="D198" t="n">
-        <v>67012.48</v>
+        <v>67040.82000000001</v>
       </c>
       <c r="E198" t="n">
-        <v>313960.11</v>
+        <v>314106.51</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>May-19</t>
+          <t>Apr-19</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C199" t="n">
-        <v>266664.76</v>
+        <v>263900.36</v>
       </c>
       <c r="D199" t="n">
-        <v>62592.86</v>
+        <v>61941.52</v>
       </c>
       <c r="E199" t="n">
-        <v>329257.62</v>
+        <v>325841.88</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C200" t="n">
-        <v>250554.61</v>
+        <v>250739.54</v>
       </c>
       <c r="D200" t="n">
-        <v>64787.32</v>
+        <v>64831.7</v>
       </c>
       <c r="E200" t="n">
-        <v>315341.93</v>
+        <v>315571.24</v>
       </c>
     </row>
     <row r="201">
@@ -4251,13 +4251,13 @@
         <v>3</v>
       </c>
       <c r="C201" t="n">
-        <v>252966.05</v>
+        <v>253150.98</v>
       </c>
       <c r="D201" t="n">
-        <v>65585.56</v>
+        <v>65629.94</v>
       </c>
       <c r="E201" t="n">
-        <v>318551.61</v>
+        <v>318780.92</v>
       </c>
     </row>
     <row r="202">
@@ -4267,35 +4267,35 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>245119.68</v>
+        <v>245304.61</v>
       </c>
       <c r="D202" t="n">
-        <v>62820.51</v>
+        <v>62864.89</v>
       </c>
       <c r="E202" t="n">
-        <v>307940.19</v>
+        <v>308169.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Jun-19</t>
+          <t>May-19</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C203" t="n">
-        <v>264321.53</v>
+        <v>262003.08</v>
       </c>
       <c r="D203" t="n">
-        <v>62874.3</v>
+        <v>62322.87</v>
       </c>
       <c r="E203" t="n">
-        <v>327195.83</v>
+        <v>324325.95</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C204" t="n">
-        <v>253891.33</v>
+        <v>253990</v>
       </c>
       <c r="D204" t="n">
-        <v>65773.95</v>
+        <v>65797.63</v>
       </c>
       <c r="E204" t="n">
-        <v>319665.28</v>
+        <v>319787.63</v>
       </c>
     </row>
     <row r="205">
@@ -4327,13 +4327,13 @@
         <v>3</v>
       </c>
       <c r="C205" t="n">
-        <v>251875.57</v>
+        <v>251974.24</v>
       </c>
       <c r="D205" t="n">
-        <v>63777.98</v>
+        <v>63801.66</v>
       </c>
       <c r="E205" t="n">
-        <v>315653.55</v>
+        <v>315775.9</v>
       </c>
     </row>
     <row r="206">
@@ -4343,35 +4343,35 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>254149.16</v>
+        <v>254247.83</v>
       </c>
       <c r="D206" t="n">
-        <v>64451.23</v>
+        <v>64474.91</v>
       </c>
       <c r="E206" t="n">
-        <v>318600.39</v>
+        <v>318722.74</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Jul-19</t>
+          <t>Jun-19</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C207" t="n">
-        <v>267536.25</v>
+        <v>265681.68</v>
       </c>
       <c r="D207" t="n">
-        <v>59495.21</v>
+        <v>59073.73</v>
       </c>
       <c r="E207" t="n">
-        <v>327031.46</v>
+        <v>324755.41</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C208" t="n">
-        <v>250550.21</v>
+        <v>250598.7</v>
       </c>
       <c r="D208" t="n">
-        <v>68500.06</v>
+        <v>68511.7</v>
       </c>
       <c r="E208" t="n">
-        <v>319050.27</v>
+        <v>319110.4</v>
       </c>
     </row>
     <row r="209">
@@ -4403,13 +4403,13 @@
         <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>259325.17</v>
+        <v>259373.67</v>
       </c>
       <c r="D209" t="n">
-        <v>61130.02</v>
+        <v>61141.66</v>
       </c>
       <c r="E209" t="n">
-        <v>320455.19</v>
+        <v>320515.33</v>
       </c>
     </row>
     <row r="210">
@@ -4419,35 +4419,35 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>266850.49</v>
+        <v>266898.98</v>
       </c>
       <c r="D210" t="n">
-        <v>64184.34</v>
+        <v>64195.98</v>
       </c>
       <c r="E210" t="n">
-        <v>331034.83</v>
+        <v>331094.96</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Aug-19</t>
+          <t>Jul-19</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C211" t="n">
-        <v>271862.76</v>
+        <v>270666.84</v>
       </c>
       <c r="D211" t="n">
-        <v>61617.09</v>
+        <v>61343.94</v>
       </c>
       <c r="E211" t="n">
-        <v>333479.85</v>
+        <v>332010.78</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C212" t="n">
-        <v>267997.36</v>
+        <v>267991.62</v>
       </c>
       <c r="D212" t="n">
-        <v>71436.14999999999</v>
+        <v>71434.78</v>
       </c>
       <c r="E212" t="n">
-        <v>339433.51</v>
+        <v>339426.4</v>
       </c>
     </row>
     <row r="213">
@@ -4479,13 +4479,13 @@
         <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>260258.85</v>
+        <v>260253.12</v>
       </c>
       <c r="D213" t="n">
-        <v>65282.26</v>
+        <v>65280.88</v>
       </c>
       <c r="E213" t="n">
-        <v>325541.11</v>
+        <v>325534</v>
       </c>
     </row>
     <row r="214">
@@ -4495,35 +4495,35 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>268716.8</v>
+        <v>339495.15</v>
       </c>
       <c r="D214" t="n">
-        <v>68060.16</v>
+        <v>85986.88</v>
       </c>
       <c r="E214" t="n">
-        <v>336776.96</v>
+        <v>425482.03</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Sep-19</t>
+          <t>Aug-19</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C215" t="n">
-        <v>262498.56</v>
+        <v>262140.92</v>
       </c>
       <c r="D215" t="n">
-        <v>64556.06</v>
+        <v>64482.63</v>
       </c>
       <c r="E215" t="n">
-        <v>327054.62</v>
+        <v>326623.55</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C216" t="n">
-        <v>271171.2</v>
+        <v>271224.3</v>
       </c>
       <c r="D216" t="n">
-        <v>61776.99</v>
+        <v>61789.74</v>
       </c>
       <c r="E216" t="n">
-        <v>332948.19</v>
+        <v>333014.04</v>
       </c>
     </row>
     <row r="217">
@@ -4555,13 +4555,13 @@
         <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>255552.21</v>
+        <v>255605.31</v>
       </c>
       <c r="D217" t="n">
-        <v>57817.93</v>
+        <v>57830.67</v>
       </c>
       <c r="E217" t="n">
-        <v>313370.14</v>
+        <v>313435.98</v>
       </c>
     </row>
     <row r="218">
@@ -4571,35 +4571,35 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>264571.12</v>
+        <v>300016.26</v>
       </c>
       <c r="D218" t="n">
-        <v>67876.63</v>
+        <v>76853.42</v>
       </c>
       <c r="E218" t="n">
-        <v>332447.75</v>
+        <v>376869.68</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Oct-19</t>
+          <t>Sep-19</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>270036.28</v>
+        <v>270625.81</v>
       </c>
       <c r="D219" t="n">
-        <v>63937.93</v>
+        <v>64077.72</v>
       </c>
       <c r="E219" t="n">
-        <v>333974.21</v>
+        <v>334703.53</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C220" t="n">
-        <v>275031.22</v>
+        <v>275168.11</v>
       </c>
       <c r="D220" t="n">
-        <v>57996.9</v>
+        <v>58029.75</v>
       </c>
       <c r="E220" t="n">
-        <v>333028.12</v>
+        <v>333197.86</v>
       </c>
     </row>
     <row r="221">
@@ -4631,13 +4631,13 @@
         <v>3</v>
       </c>
       <c r="C221" t="n">
-        <v>249840.34</v>
+        <v>249977.22</v>
       </c>
       <c r="D221" t="n">
-        <v>60163.09</v>
+        <v>60195.94</v>
       </c>
       <c r="E221" t="n">
-        <v>310003.43</v>
+        <v>310173.16</v>
       </c>
     </row>
     <row r="222">
@@ -4647,35 +4647,35 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>265238.98</v>
+        <v>283071.88</v>
       </c>
       <c r="D222" t="n">
-        <v>65263.97</v>
+        <v>69778.84</v>
       </c>
       <c r="E222" t="n">
-        <v>330502.95</v>
+        <v>352850.72</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Nov-19</t>
+          <t>Oct-19</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C223" t="n">
-        <v>254281.63</v>
+        <v>255588.35</v>
       </c>
       <c r="D223" t="n">
-        <v>62884.03</v>
+        <v>63214.39</v>
       </c>
       <c r="E223" t="n">
-        <v>317165.66</v>
+        <v>318802.74</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C224" t="n">
-        <v>260728.84</v>
+        <v>260910.58</v>
       </c>
       <c r="D224" t="n">
-        <v>62270.38</v>
+        <v>62314</v>
       </c>
       <c r="E224" t="n">
-        <v>322999.22</v>
+        <v>323224.58</v>
       </c>
     </row>
     <row r="225">
@@ -4707,13 +4707,13 @@
         <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>256784.14</v>
+        <v>256965.88</v>
       </c>
       <c r="D225" t="n">
-        <v>58354.1</v>
+        <v>58397.71</v>
       </c>
       <c r="E225" t="n">
-        <v>315138.24</v>
+        <v>315363.59</v>
       </c>
     </row>
     <row r="226">
@@ -4723,35 +4723,35 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>259925.49</v>
+        <v>268955.24</v>
       </c>
       <c r="D226" t="n">
-        <v>60533.88</v>
+        <v>62818.51</v>
       </c>
       <c r="E226" t="n">
-        <v>320459.37</v>
+        <v>331773.75</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Dec-19</t>
+          <t>Nov-19</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C227" t="n">
-        <v>255484.4</v>
+        <v>257549.17</v>
       </c>
       <c r="D227" t="n">
-        <v>65258.63</v>
+        <v>65793</v>
       </c>
       <c r="E227" t="n">
-        <v>320743.03</v>
+        <v>323342.17</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C228" t="n">
-        <v>253977.39</v>
+        <v>254129.66</v>
       </c>
       <c r="D228" t="n">
-        <v>63564.69</v>
+        <v>63601.24</v>
       </c>
       <c r="E228" t="n">
-        <v>317542.08</v>
+        <v>317730.9</v>
       </c>
     </row>
     <row r="229">
@@ -4783,13 +4783,13 @@
         <v>3</v>
       </c>
       <c r="C229" t="n">
-        <v>254339.32</v>
+        <v>254491.59</v>
       </c>
       <c r="D229" t="n">
-        <v>57618.52</v>
+        <v>57655.06</v>
       </c>
       <c r="E229" t="n">
-        <v>311957.84</v>
+        <v>312146.65</v>
       </c>
     </row>
     <row r="230">
@@ -4799,35 +4799,35 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>258079.03</v>
+        <v>329428.55</v>
       </c>
       <c r="D230" t="n">
-        <v>57963.13</v>
+        <v>74149.94</v>
       </c>
       <c r="E230" t="n">
-        <v>316042.16</v>
+        <v>403578.49</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Jan-20</t>
+          <t>Dec-19</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C231" t="n">
-        <v>316140.84</v>
+        <v>254663.35</v>
       </c>
       <c r="D231" t="n">
-        <v>74624.63</v>
+        <v>60107.32</v>
       </c>
       <c r="E231" t="n">
-        <v>390765.47</v>
+        <v>314770.67</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C232" t="n">
-        <v>264062.26</v>
+        <v>264197.21</v>
       </c>
       <c r="D232" t="n">
-        <v>62398.98</v>
+        <v>62431.37</v>
       </c>
       <c r="E232" t="n">
-        <v>326461.24</v>
+        <v>326628.58</v>
       </c>
     </row>
     <row r="233">
@@ -4859,13 +4859,13 @@
         <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>250748.57</v>
+        <v>250883.51</v>
       </c>
       <c r="D233" t="n">
-        <v>59968.98</v>
+        <v>60001.37</v>
       </c>
       <c r="E233" t="n">
-        <v>310717.55</v>
+        <v>310884.88</v>
       </c>
     </row>
     <row r="234">
@@ -4875,35 +4875,35 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>255593.42</v>
+        <v>291326.99</v>
       </c>
       <c r="D234" t="n">
-        <v>58819.55</v>
+        <v>66927.07000000001</v>
       </c>
       <c r="E234" t="n">
-        <v>314412.97</v>
+        <v>358254.06</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Feb-20</t>
+          <t>Jan-20</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C235" t="n">
-        <v>286646.45</v>
+        <v>287263.18</v>
       </c>
       <c r="D235" t="n">
-        <v>69706.09</v>
+        <v>70113.35000000001</v>
       </c>
       <c r="E235" t="n">
-        <v>356352.54</v>
+        <v>357376.53</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C236" t="n">
-        <v>284207.89</v>
+        <v>255050.79</v>
       </c>
       <c r="D236" t="n">
-        <v>66449.42</v>
+        <v>59633.36</v>
       </c>
       <c r="E236" t="n">
-        <v>350657.31</v>
+        <v>314684.15</v>
       </c>
     </row>
     <row r="237">
@@ -4935,13 +4935,13 @@
         <v>3</v>
       </c>
       <c r="C237" t="n">
-        <v>249504.22</v>
+        <v>249671.18</v>
       </c>
       <c r="D237" t="n">
-        <v>53199.97</v>
+        <v>53240.05</v>
       </c>
       <c r="E237" t="n">
-        <v>302704.19</v>
+        <v>302911.23</v>
       </c>
     </row>
     <row r="238">
@@ -4951,35 +4951,35 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>245725.95</v>
+        <v>263692.23</v>
       </c>
       <c r="D238" t="n">
-        <v>63631.65</v>
+        <v>67709.28</v>
       </c>
       <c r="E238" t="n">
-        <v>309357.6</v>
+        <v>331401.51</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Mar-20</t>
+          <t>Feb-20</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C239" t="n">
-        <v>275328.29</v>
+        <v>277461.12</v>
       </c>
       <c r="D239" t="n">
-        <v>63848.4</v>
+        <v>64454.69</v>
       </c>
       <c r="E239" t="n">
-        <v>339176.69</v>
+        <v>341915.81</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C240" t="n">
-        <v>268836.09</v>
+        <v>254306.7</v>
       </c>
       <c r="D240" t="n">
-        <v>63879.18</v>
+        <v>60482.94</v>
       </c>
       <c r="E240" t="n">
-        <v>332715.27</v>
+        <v>314789.64</v>
       </c>
     </row>
     <row r="241">
@@ -5011,13 +5011,13 @@
         <v>3</v>
       </c>
       <c r="C241" t="n">
-        <v>263833.96</v>
+        <v>263966.6</v>
       </c>
       <c r="D241" t="n">
-        <v>59648.04</v>
+        <v>59679.88</v>
       </c>
       <c r="E241" t="n">
-        <v>323482</v>
+        <v>323646.48</v>
       </c>
     </row>
     <row r="242">
@@ -5027,35 +5027,35 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>246118.33</v>
+        <v>255150.63</v>
       </c>
       <c r="D242" t="n">
-        <v>58719.1</v>
+        <v>60769.71</v>
       </c>
       <c r="E242" t="n">
-        <v>304837.43</v>
+        <v>315920.34</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Apr-20</t>
+          <t>Mar-20</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>252182.47</v>
+        <v>254738.1</v>
       </c>
       <c r="D243" t="n">
-        <v>61883.27</v>
+        <v>62574.43</v>
       </c>
       <c r="E243" t="n">
-        <v>314065.74</v>
+        <v>317312.53</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5065,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C244" t="n">
-        <v>253080.59</v>
+        <v>245931.78</v>
       </c>
       <c r="D244" t="n">
-        <v>57143.44</v>
+        <v>55473.13</v>
       </c>
       <c r="E244" t="n">
-        <v>310224.03</v>
+        <v>301404.91</v>
       </c>
     </row>
     <row r="245">
@@ -5087,13 +5087,13 @@
         <v>3</v>
       </c>
       <c r="C245" t="n">
-        <v>251114.69</v>
+        <v>251296.9</v>
       </c>
       <c r="D245" t="n">
-        <v>56024.43</v>
+        <v>56068.17</v>
       </c>
       <c r="E245" t="n">
-        <v>307139.12</v>
+        <v>307365.07</v>
       </c>
     </row>
     <row r="246">
@@ -5103,35 +5103,35 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>253633.74</v>
+        <v>258265.77</v>
       </c>
       <c r="D246" t="n">
-        <v>61302.29</v>
+        <v>62355.41</v>
       </c>
       <c r="E246" t="n">
-        <v>314936.03</v>
+        <v>320621.18</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>May-20</t>
+          <t>Apr-20</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C247" t="n">
-        <v>247068.12</v>
+        <v>249795.82</v>
       </c>
       <c r="D247" t="n">
-        <v>64268.18</v>
+        <v>65007.81</v>
       </c>
       <c r="E247" t="n">
-        <v>311336.3</v>
+        <v>314803.63</v>
       </c>
     </row>
     <row r="248">
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C248" t="n">
-        <v>247928.8</v>
+        <v>244537.78</v>
       </c>
       <c r="D248" t="n">
-        <v>55122.9</v>
+        <v>54331.76</v>
       </c>
       <c r="E248" t="n">
-        <v>303051.7</v>
+        <v>298869.54</v>
       </c>
     </row>
     <row r="249">
@@ -5163,13 +5163,13 @@
         <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>253919.05</v>
+        <v>254193.55</v>
       </c>
       <c r="D249" t="n">
-        <v>58615.47</v>
+        <v>58681.35</v>
       </c>
       <c r="E249" t="n">
-        <v>312534.52</v>
+        <v>312874.9</v>
       </c>
     </row>
     <row r="250">
@@ -5179,35 +5179,35 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>242829.34</v>
+        <v>245328.74</v>
       </c>
       <c r="D250" t="n">
-        <v>59144</v>
+        <v>59714.57</v>
       </c>
       <c r="E250" t="n">
-        <v>301973.34</v>
+        <v>305043.31</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jun-20</t>
+          <t>May-20</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C251" t="n">
-        <v>239352.86</v>
+        <v>241873.34</v>
       </c>
       <c r="D251" t="n">
-        <v>56967.08</v>
+        <v>57589.87</v>
       </c>
       <c r="E251" t="n">
-        <v>296319.94</v>
+        <v>299463.21</v>
       </c>
     </row>
     <row r="252">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C252" t="n">
-        <v>248402.08</v>
+        <v>246951.06</v>
       </c>
       <c r="D252" t="n">
-        <v>61843.42</v>
+        <v>61506.52</v>
       </c>
       <c r="E252" t="n">
-        <v>310245.5</v>
+        <v>308457.58</v>
       </c>
     </row>
     <row r="253">
@@ -5239,13 +5239,13 @@
         <v>3</v>
       </c>
       <c r="C253" t="n">
-        <v>240276.8</v>
+        <v>240658.54</v>
       </c>
       <c r="D253" t="n">
-        <v>59725.27</v>
+        <v>59816.88</v>
       </c>
       <c r="E253" t="n">
-        <v>300002.07</v>
+        <v>300475.42</v>
       </c>
     </row>
     <row r="254">
@@ -5255,35 +5255,35 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>238309.64</v>
+        <v>239803.83</v>
       </c>
       <c r="D254" t="n">
-        <v>56975.66</v>
+        <v>57319.62</v>
       </c>
       <c r="E254" t="n">
-        <v>295285.3</v>
+        <v>297123.45</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Jul-20</t>
+          <t>Jun-20</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C255" t="n">
-        <v>236294.91</v>
+        <v>238354.76</v>
       </c>
       <c r="D255" t="n">
-        <v>54681.73</v>
+        <v>55175.63</v>
       </c>
       <c r="E255" t="n">
-        <v>290976.64</v>
+        <v>293530.39</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5293,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C256" t="n">
-        <v>243869.33</v>
+        <v>243273.84</v>
       </c>
       <c r="D256" t="n">
-        <v>57214.23</v>
+        <v>57076.99</v>
       </c>
       <c r="E256" t="n">
-        <v>301083.56</v>
+        <v>300350.83</v>
       </c>
     </row>
     <row r="257">
@@ -5315,13 +5315,13 @@
         <v>3</v>
       </c>
       <c r="C257" t="n">
-        <v>240862.77</v>
+        <v>241183.67</v>
       </c>
       <c r="D257" t="n">
-        <v>58384.18</v>
+        <v>58461.19</v>
       </c>
       <c r="E257" t="n">
-        <v>299246.95</v>
+        <v>299644.86</v>
       </c>
     </row>
     <row r="258">
@@ -5331,35 +5331,35 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>237455.18</v>
+        <v>238332.3</v>
       </c>
       <c r="D258" t="n">
-        <v>54561.61</v>
+        <v>54764.8</v>
       </c>
       <c r="E258" t="n">
-        <v>292016.79</v>
+        <v>293097.1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aug-20</t>
+          <t>Jul-20</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C259" t="n">
-        <v>234611.45</v>
+        <v>236000.23</v>
       </c>
       <c r="D259" t="n">
-        <v>58102.61</v>
+        <v>58440.72</v>
       </c>
       <c r="E259" t="n">
-        <v>292714.06</v>
+        <v>294440.95</v>
       </c>
     </row>
     <row r="260">
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
-        <v>243517.68</v>
+        <v>243412.89</v>
       </c>
       <c r="D260" t="n">
-        <v>54429.96</v>
+        <v>54407.65</v>
       </c>
       <c r="E260" t="n">
-        <v>297947.64</v>
+        <v>297820.54</v>
       </c>
     </row>
     <row r="261">
@@ -5391,13 +5391,13 @@
         <v>3</v>
       </c>
       <c r="C261" t="n">
-        <v>240106.87</v>
+        <v>240460.27</v>
       </c>
       <c r="D261" t="n">
-        <v>59942.42</v>
+        <v>60027.23</v>
       </c>
       <c r="E261" t="n">
-        <v>300049.29</v>
+        <v>300487.5</v>
       </c>
     </row>
     <row r="262">
@@ -5407,35 +5407,35 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>230001.57</v>
+        <v>230633.08</v>
       </c>
       <c r="D262" t="n">
-        <v>57438.26</v>
+        <v>57586.16</v>
       </c>
       <c r="E262" t="n">
-        <v>287439.83</v>
+        <v>288219.24</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Sep-20</t>
+          <t>Aug-20</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C263" t="n">
-        <v>233542.31</v>
+        <v>234249.26</v>
       </c>
       <c r="D263" t="n">
-        <v>59333.95</v>
+        <v>59501.75</v>
       </c>
       <c r="E263" t="n">
-        <v>292876.26</v>
+        <v>293751.01</v>
       </c>
     </row>
     <row r="264">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C264" t="n">
-        <v>237516.55</v>
+        <v>237729.47</v>
       </c>
       <c r="D264" t="n">
-        <v>50715.37</v>
+        <v>50767.89</v>
       </c>
       <c r="E264" t="n">
-        <v>288231.92</v>
+        <v>288497.36</v>
       </c>
     </row>
     <row r="265">
@@ -5467,13 +5467,13 @@
         <v>3</v>
       </c>
       <c r="C265" t="n">
-        <v>231698.44</v>
+        <v>232140.45</v>
       </c>
       <c r="D265" t="n">
-        <v>58762.02</v>
+        <v>58868.1</v>
       </c>
       <c r="E265" t="n">
-        <v>290460.46</v>
+        <v>291008.55</v>
       </c>
     </row>
     <row r="266">
@@ -5483,35 +5483,35 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>235626.37</v>
+        <v>236207.44</v>
       </c>
       <c r="D266" t="n">
-        <v>54790.73</v>
+        <v>54928.36</v>
       </c>
       <c r="E266" t="n">
-        <v>290417.1</v>
+        <v>291135.8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Oct-20</t>
+          <t>Sep-20</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C267" t="n">
-        <v>239808.97</v>
+        <v>239818.39</v>
       </c>
       <c r="D267" t="n">
-        <v>53694.2</v>
+        <v>53724.25</v>
       </c>
       <c r="E267" t="n">
-        <v>293503.17</v>
+        <v>293542.64</v>
       </c>
     </row>
     <row r="268">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C268" t="n">
-        <v>238425.3</v>
+        <v>238808.36</v>
       </c>
       <c r="D268" t="n">
-        <v>50677.9</v>
+        <v>50770.54</v>
       </c>
       <c r="E268" t="n">
-        <v>289103.2</v>
+        <v>289578.9</v>
       </c>
     </row>
     <row r="269">
@@ -5543,13 +5543,13 @@
         <v>3</v>
       </c>
       <c r="C269" t="n">
-        <v>232714.28</v>
+        <v>233211.89</v>
       </c>
       <c r="D269" t="n">
-        <v>58313</v>
+        <v>58432.42</v>
       </c>
       <c r="E269" t="n">
-        <v>291027.28</v>
+        <v>291644.31</v>
       </c>
     </row>
     <row r="270">
@@ -5559,35 +5559,35 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>233680.52</v>
+        <v>234247.66</v>
       </c>
       <c r="D270" t="n">
-        <v>55087.6</v>
+        <v>55222.8</v>
       </c>
       <c r="E270" t="n">
-        <v>288768.12</v>
+        <v>289470.46</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Nov-20</t>
+          <t>Oct-20</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C271" t="n">
-        <v>245704.86</v>
+        <v>244982.51</v>
       </c>
       <c r="D271" t="n">
-        <v>54204.84</v>
+        <v>54068.72</v>
       </c>
       <c r="E271" t="n">
-        <v>299909.7</v>
+        <v>299051.23</v>
       </c>
     </row>
     <row r="272">
@@ -5597,16 +5597,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C272" t="n">
-        <v>244190.18</v>
+        <v>244672.75</v>
       </c>
       <c r="D272" t="n">
-        <v>51096.88</v>
+        <v>51213.05</v>
       </c>
       <c r="E272" t="n">
-        <v>295287.06</v>
+        <v>295885.8</v>
       </c>
     </row>
     <row r="273">
@@ -5619,13 +5619,13 @@
         <v>3</v>
       </c>
       <c r="C273" t="n">
-        <v>239859.3</v>
+        <v>240399.15</v>
       </c>
       <c r="D273" t="n">
-        <v>62355.54</v>
+        <v>62485.1</v>
       </c>
       <c r="E273" t="n">
-        <v>302214.84</v>
+        <v>302884.25</v>
       </c>
     </row>
     <row r="274">
@@ -5635,35 +5635,35 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>225865.77</v>
+        <v>226440.37</v>
       </c>
       <c r="D274" t="n">
-        <v>54264.87</v>
+        <v>54402.32</v>
       </c>
       <c r="E274" t="n">
-        <v>280130.64</v>
+        <v>280842.69</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Dec-20</t>
+          <t>Nov-20</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C275" t="n">
-        <v>247967.71</v>
+        <v>246512.44</v>
       </c>
       <c r="D275" t="n">
-        <v>55861</v>
+        <v>55543.84</v>
       </c>
       <c r="E275" t="n">
-        <v>303828.71</v>
+        <v>302056.28</v>
       </c>
     </row>
     <row r="276">
@@ -5673,16 +5673,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C276" t="n">
-        <v>246206.48</v>
+        <v>246672.8</v>
       </c>
       <c r="D276" t="n">
-        <v>53134.28</v>
+        <v>53246.37</v>
       </c>
       <c r="E276" t="n">
-        <v>299340.76</v>
+        <v>299919.17</v>
       </c>
     </row>
     <row r="277">
@@ -5695,13 +5695,13 @@
         <v>3</v>
       </c>
       <c r="C277" t="n">
-        <v>242653.82</v>
+        <v>243148.78</v>
       </c>
       <c r="D277" t="n">
-        <v>60074.91</v>
+        <v>60193.69</v>
       </c>
       <c r="E277" t="n">
-        <v>302728.73</v>
+        <v>303342.47</v>
       </c>
     </row>
     <row r="278">
@@ -5711,35 +5711,35 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>240927.87</v>
+        <v>241440.21</v>
       </c>
       <c r="D278" t="n">
-        <v>57229.11</v>
+        <v>57351.84</v>
       </c>
       <c r="E278" t="n">
-        <v>298156.98</v>
+        <v>298792.05</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Jan-21</t>
+          <t>Dec-20</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C279" t="n">
-        <v>249469.2</v>
+        <v>247429.12</v>
       </c>
       <c r="D279" t="n">
-        <v>56427.46</v>
+        <v>55973.68</v>
       </c>
       <c r="E279" t="n">
-        <v>305896.66</v>
+        <v>303402.8</v>
       </c>
     </row>
     <row r="280">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C280" t="n">
-        <v>244515.94</v>
+        <v>245030.49</v>
       </c>
       <c r="D280" t="n">
-        <v>55002.86</v>
+        <v>55126.44</v>
       </c>
       <c r="E280" t="n">
-        <v>299518.8</v>
+        <v>300156.93</v>
       </c>
     </row>
     <row r="281">
@@ -5771,13 +5771,13 @@
         <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>247092.83</v>
+        <v>247621.7</v>
       </c>
       <c r="D281" t="n">
-        <v>58507.45</v>
+        <v>58634.37</v>
       </c>
       <c r="E281" t="n">
-        <v>305600.28</v>
+        <v>306256.07</v>
       </c>
     </row>
     <row r="282">
@@ -5787,35 +5787,35 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>245713.24</v>
+        <v>246250.8</v>
       </c>
       <c r="D282" t="n">
-        <v>64476.79</v>
+        <v>64605.69</v>
       </c>
       <c r="E282" t="n">
-        <v>310190.03</v>
+        <v>310856.49</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Feb-21</t>
+          <t>Jan-21</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C283" t="n">
-        <v>254590.57</v>
+        <v>252114.39</v>
       </c>
       <c r="D283" t="n">
-        <v>57355.74</v>
+        <v>56805.56</v>
       </c>
       <c r="E283" t="n">
-        <v>311946.31</v>
+        <v>308919.95</v>
       </c>
     </row>
     <row r="284">
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C284" t="n">
-        <v>253764.38</v>
+        <v>254240.74</v>
       </c>
       <c r="D284" t="n">
-        <v>56397.29</v>
+        <v>56511.66</v>
       </c>
       <c r="E284" t="n">
-        <v>310161.67</v>
+        <v>310752.4</v>
       </c>
     </row>
     <row r="285">
@@ -5847,13 +5847,13 @@
         <v>3</v>
       </c>
       <c r="C285" t="n">
-        <v>238856.14</v>
+        <v>239339.65</v>
       </c>
       <c r="D285" t="n">
-        <v>56349.55</v>
+        <v>56465.59</v>
       </c>
       <c r="E285" t="n">
-        <v>295205.69</v>
+        <v>295805.24</v>
       </c>
     </row>
     <row r="286">
@@ -5863,35 +5863,35 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>239003</v>
+        <v>239490.87</v>
       </c>
       <c r="D286" t="n">
-        <v>61303.94</v>
+        <v>61420.97</v>
       </c>
       <c r="E286" t="n">
-        <v>300306.94</v>
+        <v>300911.84</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Mar-21</t>
+          <t>Feb-21</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C287" t="n">
-        <v>254489.41</v>
+        <v>251868.71</v>
       </c>
       <c r="D287" t="n">
-        <v>64276.47</v>
+        <v>63604.75</v>
       </c>
       <c r="E287" t="n">
-        <v>318765.88</v>
+        <v>315473.46</v>
       </c>
     </row>
     <row r="288">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C288" t="n">
-        <v>255638.83</v>
+        <v>256107.98</v>
       </c>
       <c r="D288" t="n">
-        <v>58037.04</v>
+        <v>58149.66</v>
       </c>
       <c r="E288" t="n">
-        <v>313675.87</v>
+        <v>314257.64</v>
       </c>
     </row>
     <row r="289">
@@ -5923,13 +5923,13 @@
         <v>3</v>
       </c>
       <c r="C289" t="n">
-        <v>250729.61</v>
+        <v>251202.34</v>
       </c>
       <c r="D289" t="n">
-        <v>51959.73</v>
+        <v>52073.18</v>
       </c>
       <c r="E289" t="n">
-        <v>302689.34</v>
+        <v>303275.52</v>
       </c>
     </row>
     <row r="290">
@@ -5939,35 +5939,35 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>247795.66</v>
+        <v>248270.57</v>
       </c>
       <c r="D290" t="n">
-        <v>63498.7</v>
+        <v>63612.64</v>
       </c>
       <c r="E290" t="n">
-        <v>311294.36</v>
+        <v>311883.21</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Apr-21</t>
+          <t>Mar-21</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C291" t="n">
-        <v>248249.5</v>
+        <v>315852.45</v>
       </c>
       <c r="D291" t="n">
-        <v>66515.09</v>
+        <v>84608.99000000001</v>
       </c>
       <c r="E291" t="n">
-        <v>314764.59</v>
+        <v>400461.44</v>
       </c>
     </row>
     <row r="292">
@@ -5977,16 +5977,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C292" t="n">
-        <v>331735.43</v>
+        <v>258641.41</v>
       </c>
       <c r="D292" t="n">
-        <v>75309.44</v>
+        <v>58722.45</v>
       </c>
       <c r="E292" t="n">
-        <v>407044.87</v>
+        <v>317363.86</v>
       </c>
     </row>
     <row r="293">
@@ -5999,13 +5999,13 @@
         <v>3</v>
       </c>
       <c r="C293" t="n">
-        <v>257190.37</v>
+        <v>257696.8</v>
       </c>
       <c r="D293" t="n">
-        <v>63822.06</v>
+        <v>63943.6</v>
       </c>
       <c r="E293" t="n">
-        <v>321012.43</v>
+        <v>321640.4</v>
       </c>
     </row>
     <row r="294">
@@ -6015,35 +6015,35 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>253412.45</v>
+        <v>253919.98</v>
       </c>
       <c r="D294" t="n">
-        <v>63372.44</v>
+        <v>63494.23</v>
       </c>
       <c r="E294" t="n">
-        <v>316784.89</v>
+        <v>317414.21</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>May-21</t>
+          <t>Apr-21</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C295" t="n">
-        <v>251659.65</v>
+        <v>284424.63</v>
       </c>
       <c r="D295" t="n">
-        <v>61796.97</v>
+        <v>70615.85000000001</v>
       </c>
       <c r="E295" t="n">
-        <v>313456.62</v>
+        <v>355040.48</v>
       </c>
     </row>
     <row r="296">
@@ -6053,16 +6053,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C296" t="n">
-        <v>300079.08</v>
+        <v>263717.91</v>
       </c>
       <c r="D296" t="n">
-        <v>66174.75999999999</v>
+        <v>57925.87</v>
       </c>
       <c r="E296" t="n">
-        <v>366253.84</v>
+        <v>321643.78</v>
       </c>
     </row>
     <row r="297">
@@ -6075,13 +6075,13 @@
         <v>3</v>
       </c>
       <c r="C297" t="n">
-        <v>258878.57</v>
+        <v>259317.62</v>
       </c>
       <c r="D297" t="n">
-        <v>61606.49</v>
+        <v>61711.86</v>
       </c>
       <c r="E297" t="n">
-        <v>320485.06</v>
+        <v>321029.48</v>
       </c>
     </row>
     <row r="298">
@@ -6091,92 +6091,35 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>259098.7</v>
+        <v>259538.3</v>
       </c>
       <c r="D298" t="n">
-        <v>63901.69</v>
+        <v>64007.19</v>
       </c>
       <c r="E298" t="n">
-        <v>323000.39</v>
+        <v>323545.49</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Jun-21</t>
+          <t>May-21</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C299" t="n">
-        <v>262129.95</v>
+        <v>277682.17</v>
       </c>
       <c r="D299" t="n">
-        <v>60715.25</v>
+        <v>64947.48</v>
       </c>
       <c r="E299" t="n">
-        <v>322845.2</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Jun-21</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>1</v>
-      </c>
-      <c r="C300" t="n">
-        <v>279519.53</v>
-      </c>
-      <c r="D300" t="n">
-        <v>61437.01</v>
-      </c>
-      <c r="E300" t="n">
-        <v>340956.54</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Jun-21</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>3</v>
-      </c>
-      <c r="C301" t="n">
-        <v>258009.42</v>
-      </c>
-      <c r="D301" t="n">
-        <v>63397.23</v>
-      </c>
-      <c r="E301" t="n">
-        <v>321406.65</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Jun-21</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>2</v>
-      </c>
-      <c r="C302" t="n">
-        <v>264385.98</v>
-      </c>
-      <c r="D302" t="n">
-        <v>60477.63</v>
-      </c>
-      <c r="E302" t="n">
-        <v>324863.61</v>
+        <v>342629.65</v>
       </c>
     </row>
   </sheetData>
